--- a/product_keywords.xlsx
+++ b/product_keywords.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,58 +473,95 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Anillo de Turmalina y Plata</t>
+          <t>LASUR AL AGUA NOGAL 750 ML</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://latiendadelosminerales.com/anillos/anillos-de-plata-con-piedras-semipreciosas/anillo-turmalina-sandia-y-plata-02#/40-talla_anillo-15</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Anillo realizado con turmalinas sandía natural y plata 925 mm. Talla 15</t>
-        </is>
-      </c>
+          <t>https://www.hogaryhobby.com/tienda/LASUR-AL-AGUA-NOGAL-750-ML-p672951419</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://latiendadelosminerales.com/28834-large_default/anillo-turmalina-sandia-y-plata-02.jpg</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
+          <t>https://d2j6dbq0eux0bg.cloudfront.net/images/103344402/4390410979.jpg</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>LASUR AL AGUA NOGAL 750 ML</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>30,60€</t>
+          <t>8,25€</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  * Iniciar sesión 
-####  Iniciar sesión / Register
-__
-__
-Iniciar sesión
-¿Olvidaste tu contraseña? Crea una cuenta
-× ×
-Utilizamos cookies propias y de terceros para conocer los usos de nuestra tienda online y poder mejorarla, adaptar el contenido a tus gustos y personalizar nuestros anuncios, marketing y publicaciones en redes sociales. Puedes aceptarlas todas, rechazarlas o elegir tu configuración pulsando los botones correspondientes. Ten en cuenta que rechazar las cookies puede afectar a tu experiencia de compra.
-**Cookies necesarias**
-Siempre habilitado
-Las cookies necesarias ayudan a hacer una página web utilizable activando funciones básicas como la navegación en la página y el acceso a áreas seguras de la página web. La página web no puede funcionar adecuadamente sin estas cookies.  Nombre de la cookie | Proveedor | Objetivo | Expiración   ---|---|---|---   cookiesplus |  https://latiendadelosminerales.com |  Almacena las preferencias sobre cookies. |  1 año   PrestaShop-# |  https://latiendadelosminerales.com |  Esta cookie permite conservar abiertas las sesiones del usuario durante su visita y le permite pasar un pedido o toda una serie de funcionamientos como: fecha de adición de la cookie, idioma seleccionado, divisa utilizada, última categoría de producto visitado, productos recientemente vistos, acuerdo de utilización de servicios del sitio, identificador del cliente, identificador de conexión, apellido, nombre, estado conectado, su contraseña cifrada, e-mail relacionado con la cuenta del cliente y el identificador del carrito. |  480 horas      **Cookies de preferencias**
-No Sí
-Las cookies de preferencias permiten a la página web recordar información que cambia la forma en que la página se comporta o el aspecto que tiene, como su idioma preferido o la región en la que usted se encuentra.
-**Cookies estadísticas**
-No Sí
-Las cookies estadísticas ayudan a los propietarios de páginas web a comprender cómo interactúan los visitantes con las páginas web reuniendo y proporcionando información de forma anónima.  Nombre de la cookie | Proveedor | Objetivo | Expiración   ---|---|---|---   collect |  Google |  Se utiliza para enviar datos a Google Analytics sobre el dispositivo del visitante y su comportamiento. Rastrea al visitante a través de dispositivos y canales de marketing. |  Sesión   r/collect |  Google |  Se utiliza para enviar datos a Google Analytics sobre el dispositivo del visitante y su comportamiento. Rastrea al visitante a través de dispositivos y canales de marketing. |  Sesión   _ga |  Google |  Registra una identificación única que se utiliza para generar datos estadísticos acerca de cómo utiliza el visitante el sitio web. |  2 años   _gat |  Google |  Utilizado por Google Analytics para controlar la tasa de peticiones |  1 día   _ga_# |  Google |  Recopila datos sobre el número de veces que un usuario ha visitado el sitio web además de las fechas de la primera visita y de la más reciente. Utilizada por Google Analytics. |  2 años   _gd# |  Google |  Se trata de una cookie de sesión de Google Analytics que se utiliza para generar datos estadísticos sobre cómo utiliza el sitio web que se elimina cuando sale de su navegador. |  Sesión   _gid |  Google |  Registra una identificación única que se utiliza para generar datos estadísticos acerca de cómo utiliza el visitante el sitio web. |  1 día      **Cookies de marketing**
-No Sí
-Las cookies de marketing se utilizan para rastrear a los visitantes en las páginas web. La intención es mostrar anuncios relevantes y atractivos para el usuario individual, y por lo tanto, más valiosos para los editores y terceros anunciantes.
-Aceptar
-Rechazar cookies
-Configurar
-Aceptar las cookies
-Rechazar las cookies
-Guardar mis preferencias
-← Atrás
-× Contenido no disponible
+          <t xml:space="preserve">Síguenos
+  *   *   *   *   *   *   *   *   *   *   *
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+LLÁMANOS
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+0
+0
++2
+# LASUR AL AGUA NOGAL 750 ML
+Tienda / Exterior y Jardín / Lasur al agua
+€ 8,25
+Precio incluido IVA (19%) € 1,32
+Disponible
+Añadir más
+Añadir a la cesta
+Ir al pago
+Comparte este producto con sus amigos
+Compartir Compartir Fíjelo
+LASUR AL AGUA NOGAL 750 ML
+Tienda / Exterior y Jardín / Lasur al agua
+  * Mi cuenta   * Seguimiento de pedidos   * Cesta
+Mostrar precios en: EUR
+## ¿Necesitas más información?
+TE LLAMAMOS NOSOTROS
+Avenida de Moratalaz 141
+28030, Madrid
+hogaryhobby@gmail.com
+hogaryhobby@gmail.com
+914393334 \- 914399141 - 629224604
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+##### Síguenos
+  *   *   *   *   *   *   *   *   *   *   * 
+Mostrar más Mostrar menos
+### Horario de apertura
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+Enlaces de interés:
+  * Tintes y lasures al agua para madera en Moratalaz, Madrid   * Barnices y protectores para madera en Moratalaz Madrid   * Tienda de pavimentos y azulejos en Moratalaz, Madrid   * Obras y reformas integrales en Moratalaz, Madrid
+  * Aviso legal Aviso legal   * - Política de privacidad Política de privacidad   * - Política de cookies Política de cookies   * - Declaración accesibilidad Declaración accesibilidad   * - Política de envío y devoluciones Política de envío y devoluciones
+Share by:
 </t>
         </is>
       </c>
@@ -532,58 +569,94 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Pendientes Jade y plata</t>
+          <t>ACEITE TEKA INCOLORO 750 ML</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://latiendadelosminerales.com/pendientes/pendientes-de-piedras-semipreciosas-y-plata/pendientes-jade-y-plata-09</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Pendientes realizados en jade de gran calidad y plata 925 mm</t>
-        </is>
-      </c>
+          <t>https://www.hogaryhobby.com/tienda/ACEITE-TEKA-INCOLORO-750-ML-p674407997</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://latiendadelosminerales.com/28858-large_default/pendientes-jade-y-plata-09.jpg</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
+          <t>https://d2j6dbq0eux0bg.cloudfront.net/images/103344402/4402864867.jpg</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>ACEITE TEKA INCOLORO 750 ML</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>41,65€</t>
+          <t>8,04€</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t xml:space="preserve">  * Iniciar sesión 
-####  Iniciar sesión / Register
-__
-__
-Iniciar sesión
-¿Olvidaste tu contraseña? Crea una cuenta
-× ×
-Utilizamos cookies propias y de terceros para conocer los usos de nuestra tienda online y poder mejorarla, adaptar el contenido a tus gustos y personalizar nuestros anuncios, marketing y publicaciones en redes sociales. Puedes aceptarlas todas, rechazarlas o elegir tu configuración pulsando los botones correspondientes. Ten en cuenta que rechazar las cookies puede afectar a tu experiencia de compra.
-**Cookies necesarias**
-Siempre habilitado
-Las cookies necesarias ayudan a hacer una página web utilizable activando funciones básicas como la navegación en la página y el acceso a áreas seguras de la página web. La página web no puede funcionar adecuadamente sin estas cookies.  Nombre de la cookie | Proveedor | Objetivo | Expiración   ---|---|---|---   cookiesplus |  https://latiendadelosminerales.com |  Almacena las preferencias sobre cookies. |  1 año   PrestaShop-# |  https://latiendadelosminerales.com |  Esta cookie permite conservar abiertas las sesiones del usuario durante su visita y le permite pasar un pedido o toda una serie de funcionamientos como: fecha de adición de la cookie, idioma seleccionado, divisa utilizada, última categoría de producto visitado, productos recientemente vistos, acuerdo de utilización de servicios del sitio, identificador del cliente, identificador de conexión, apellido, nombre, estado conectado, su contraseña cifrada, e-mail relacionado con la cuenta del cliente y el identificador del carrito. |  480 horas      **Cookies de preferencias**
-No Sí
-Las cookies de preferencias permiten a la página web recordar información que cambia la forma en que la página se comporta o el aspecto que tiene, como su idioma preferido o la región en la que usted se encuentra.
-**Cookies estadísticas**
-No Sí
-Las cookies estadísticas ayudan a los propietarios de páginas web a comprender cómo interactúan los visitantes con las páginas web reuniendo y proporcionando información de forma anónima.  Nombre de la cookie | Proveedor | Objetivo | Expiración   ---|---|---|---   collect |  Google |  Se utiliza para enviar datos a Google Analytics sobre el dispositivo del visitante y su comportamiento. Rastrea al visitante a través de dispositivos y canales de marketing. |  Sesión   r/collect |  Google |  Se utiliza para enviar datos a Google Analytics sobre el dispositivo del visitante y su comportamiento. Rastrea al visitante a través de dispositivos y canales de marketing. |  Sesión   _ga |  Google |  Registra una identificación única que se utiliza para generar datos estadísticos acerca de cómo utiliza el visitante el sitio web. |  2 años   _gat |  Google |  Utilizado por Google Analytics para controlar la tasa de peticiones |  1 día   _ga_# |  Google |  Recopila datos sobre el número de veces que un usuario ha visitado el sitio web además de las fechas de la primera visita y de la más reciente. Utilizada por Google Analytics. |  2 años   _gd# |  Google |  Se trata de una cookie de sesión de Google Analytics que se utiliza para generar datos estadísticos sobre cómo utiliza el sitio web que se elimina cuando sale de su navegador. |  Sesión   _gid |  Google |  Registra una identificación única que se utiliza para generar datos estadísticos acerca de cómo utiliza el visitante el sitio web. |  1 día      **Cookies de marketing**
-No Sí
-Las cookies de marketing se utilizan para rastrear a los visitantes en las páginas web. La intención es mostrar anuncios relevantes y atractivos para el usuario individual, y por lo tanto, más valiosos para los editores y terceros anunciantes.
-Aceptar
-Rechazar cookies
-Configurar
-Aceptar las cookies
-Rechazar las cookies
-Guardar mis preferencias
-← Atrás
-× Contenido no disponible
+          <t xml:space="preserve">Síguenos
+  *   *   *   *   *   *   *   *   *   *   *
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+LLÁMANOS
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+0
+0
+# ACEITE TEKA INCOLORO 750 ML
+Tienda / Exterior y Jardín / Aceites
+€ 8,04
+Precio incluido IVA (19%) € 1,28
+Disponible
+Añadir más
+Añadir a la cesta
+Ir al pago
+Comparte este producto con sus amigos
+Compartir Compartir Fíjelo
+ACEITE TEKA INCOLORO 750 ML
+Tienda / Exterior y Jardín / Aceites
+  * Mi cuenta   * Seguimiento de pedidos   * Cesta
+Mostrar precios en: EUR
+## ¿Necesitas más información?
+TE LLAMAMOS NOSOTROS
+Avenida de Moratalaz 141
+28030, Madrid
+hogaryhobby@gmail.com
+hogaryhobby@gmail.com
+914393334 \- 914399141 - 629224604
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+##### Síguenos
+  *   *   *   *   *   *   *   *   *   *   * 
+Mostrar más Mostrar menos
+### Horario de apertura
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+Enlaces de interés:
+  * Tintes y lasures al agua para madera en Moratalaz, Madrid   * Barnices y protectores para madera en Moratalaz Madrid   * Tienda de pavimentos y azulejos en Moratalaz, Madrid   * Obras y reformas integrales en Moratalaz, Madrid
+  * Aviso legal Aviso legal   * - Política de privacidad Política de privacidad   * - Política de cookies Política de cookies   * - Declaración accesibilidad Declaración accesibilidad   * - Política de envío y devoluciones Política de envío y devoluciones
+Share by:
 </t>
         </is>
       </c>
@@ -591,58 +664,94 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Pendientes ónix y plata- La tienda de los Minerales</t>
+          <t>BARNIZ TINTE SATINADO WENGUÉ 750 ML</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://latiendadelosminerales.com/pendientes/pendientes-de-piedras-semipreciosas-y-plata/pendientes-presion-onix-y-plata-49</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Pendientes realizados en ónix y plata 925 mm</t>
-        </is>
-      </c>
+          <t>https://www.hogaryhobby.com/tienda/BARNIZ-TINTE-SATINADO-WENGUE-750-ML-p674434001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://latiendadelosminerales.com/28871-large_default/pendientes-presion-onix-y-plata-49.jpg</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
+          <t>https://d2j6dbq0eux0bg.cloudfront.net/images/103344402/4402942483.jpg</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>BARNIZ TINTE SATINADO WENGUÉ 750 ML</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>22,10€</t>
+          <t>9,47€</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t xml:space="preserve">  * Iniciar sesión 
-####  Iniciar sesión / Register
-__
-__
-Iniciar sesión
-¿Olvidaste tu contraseña? Crea una cuenta
-× ×
-Utilizamos cookies propias y de terceros para conocer los usos de nuestra tienda online y poder mejorarla, adaptar el contenido a tus gustos y personalizar nuestros anuncios, marketing y publicaciones en redes sociales. Puedes aceptarlas todas, rechazarlas o elegir tu configuración pulsando los botones correspondientes. Ten en cuenta que rechazar las cookies puede afectar a tu experiencia de compra.
-**Cookies necesarias**
-Siempre habilitado
-Las cookies necesarias ayudan a hacer una página web utilizable activando funciones básicas como la navegación en la página y el acceso a áreas seguras de la página web. La página web no puede funcionar adecuadamente sin estas cookies.  Nombre de la cookie | Proveedor | Objetivo | Expiración   ---|---|---|---   cookiesplus |  https://latiendadelosminerales.com |  Almacena las preferencias sobre cookies. |  1 año   PrestaShop-# |  https://latiendadelosminerales.com |  Esta cookie permite conservar abiertas las sesiones del usuario durante su visita y le permite pasar un pedido o toda una serie de funcionamientos como: fecha de adición de la cookie, idioma seleccionado, divisa utilizada, última categoría de producto visitado, productos recientemente vistos, acuerdo de utilización de servicios del sitio, identificador del cliente, identificador de conexión, apellido, nombre, estado conectado, su contraseña cifrada, e-mail relacionado con la cuenta del cliente y el identificador del carrito. |  480 horas      **Cookies de preferencias**
-No Sí
-Las cookies de preferencias permiten a la página web recordar información que cambia la forma en que la página se comporta o el aspecto que tiene, como su idioma preferido o la región en la que usted se encuentra.
-**Cookies estadísticas**
-No Sí
-Las cookies estadísticas ayudan a los propietarios de páginas web a comprender cómo interactúan los visitantes con las páginas web reuniendo y proporcionando información de forma anónima.  Nombre de la cookie | Proveedor | Objetivo | Expiración   ---|---|---|---   collect |  Google |  Se utiliza para enviar datos a Google Analytics sobre el dispositivo del visitante y su comportamiento. Rastrea al visitante a través de dispositivos y canales de marketing. |  Sesión   r/collect |  Google |  Se utiliza para enviar datos a Google Analytics sobre el dispositivo del visitante y su comportamiento. Rastrea al visitante a través de dispositivos y canales de marketing. |  Sesión   _ga |  Google |  Registra una identificación única que se utiliza para generar datos estadísticos acerca de cómo utiliza el visitante el sitio web. |  2 años   _gat |  Google |  Utilizado por Google Analytics para controlar la tasa de peticiones |  1 día   _ga_# |  Google |  Recopila datos sobre el número de veces que un usuario ha visitado el sitio web además de las fechas de la primera visita y de la más reciente. Utilizada por Google Analytics. |  2 años   _gd# |  Google |  Se trata de una cookie de sesión de Google Analytics que se utiliza para generar datos estadísticos sobre cómo utiliza el sitio web que se elimina cuando sale de su navegador. |  Sesión   _gid |  Google |  Registra una identificación única que se utiliza para generar datos estadísticos acerca de cómo utiliza el visitante el sitio web. |  1 día      **Cookies de marketing**
-No Sí
-Las cookies de marketing se utilizan para rastrear a los visitantes en las páginas web. La intención es mostrar anuncios relevantes y atractivos para el usuario individual, y por lo tanto, más valiosos para los editores y terceros anunciantes.
-Aceptar
-Rechazar cookies
-Configurar
-Aceptar las cookies
-Rechazar las cookies
-Guardar mis preferencias
-← Atrás
-× Contenido no disponible
+          <t xml:space="preserve">Síguenos
+  *   *   *   *   *   *   *   *   *   *   *
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+LLÁMANOS
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+0
+0
+# BARNIZ TINTE SATINADO WENGUÉ 750 ML
+Tienda / Baniz de interior
+€ 9,47
+Precio incluido IVA (19%) € 1,51
+Disponible
+Añadir más
+Añadir a la cesta
+Ir al pago
+Comparte este producto con sus amigos
+Compartir Compartir Fíjelo
+BARNIZ TINTE SATINADO WENGUÉ 750 ML
+Tienda / Baniz de interior
+  * Mi cuenta   * Seguimiento de pedidos   * Cesta
+Mostrar precios en: EUR
+## ¿Necesitas más información?
+TE LLAMAMOS NOSOTROS
+Avenida de Moratalaz 141
+28030, Madrid
+hogaryhobby@gmail.com
+hogaryhobby@gmail.com
+914393334 \- 914399141 - 629224604
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+##### Síguenos
+  *   *   *   *   *   *   *   *   *   *   * 
+Mostrar más Mostrar menos
+### Horario de apertura
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+Enlaces de interés:
+  * Tintes y lasures al agua para madera en Moratalaz, Madrid   * Barnices y protectores para madera en Moratalaz Madrid   * Tienda de pavimentos y azulejos en Moratalaz, Madrid   * Obras y reformas integrales en Moratalaz, Madrid
+  * Aviso legal Aviso legal   * - Política de privacidad Política de privacidad   * - Política de cookies Política de cookies   * - Declaración accesibilidad Declaración accesibilidad   * - Política de envío y devoluciones Política de envío y devoluciones
+Share by:
 </t>
         </is>
       </c>
@@ -650,58 +759,94 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Anillo de Plata y Purpurita</t>
+          <t>BARNIZ MARINO BRILLO 750 ml</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://latiendadelosminerales.com/anillos/anillos-de-plata-con-piedras-semipreciosas/anillo-purpurita-y-plata-04#/38-talla_anillo-13</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Anillo realizado en purpurita y plata 925 mm.  Talla 13</t>
-        </is>
-      </c>
+          <t>https://www.hogaryhobby.com/tienda/BARNIZ-MARINO-BRILLO-750-ml-p674434004</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://latiendadelosminerales.com/28839-large_default/anillo-purpurita-y-plata-04.jpg</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
+          <t>Imagen no disponible</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>BARNIZ MARINO BRILLO 750 ml</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>74,80€</t>
+          <t>12,72€</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t xml:space="preserve">  * Iniciar sesión 
-####  Iniciar sesión / Register
-__
-__
-Iniciar sesión
-¿Olvidaste tu contraseña? Crea una cuenta
-× ×
-Utilizamos cookies propias y de terceros para conocer los usos de nuestra tienda online y poder mejorarla, adaptar el contenido a tus gustos y personalizar nuestros anuncios, marketing y publicaciones en redes sociales. Puedes aceptarlas todas, rechazarlas o elegir tu configuración pulsando los botones correspondientes. Ten en cuenta que rechazar las cookies puede afectar a tu experiencia de compra.
-**Cookies necesarias**
-Siempre habilitado
-Las cookies necesarias ayudan a hacer una página web utilizable activando funciones básicas como la navegación en la página y el acceso a áreas seguras de la página web. La página web no puede funcionar adecuadamente sin estas cookies.  Nombre de la cookie | Proveedor | Objetivo | Expiración   ---|---|---|---   cookiesplus |  https://latiendadelosminerales.com |  Almacena las preferencias sobre cookies. |  1 año   PrestaShop-# |  https://latiendadelosminerales.com |  Esta cookie permite conservar abiertas las sesiones del usuario durante su visita y le permite pasar un pedido o toda una serie de funcionamientos como: fecha de adición de la cookie, idioma seleccionado, divisa utilizada, última categoría de producto visitado, productos recientemente vistos, acuerdo de utilización de servicios del sitio, identificador del cliente, identificador de conexión, apellido, nombre, estado conectado, su contraseña cifrada, e-mail relacionado con la cuenta del cliente y el identificador del carrito. |  480 horas      **Cookies de preferencias**
-No Sí
-Las cookies de preferencias permiten a la página web recordar información que cambia la forma en que la página se comporta o el aspecto que tiene, como su idioma preferido o la región en la que usted se encuentra.
-**Cookies estadísticas**
-No Sí
-Las cookies estadísticas ayudan a los propietarios de páginas web a comprender cómo interactúan los visitantes con las páginas web reuniendo y proporcionando información de forma anónima.  Nombre de la cookie | Proveedor | Objetivo | Expiración   ---|---|---|---   collect |  Google |  Se utiliza para enviar datos a Google Analytics sobre el dispositivo del visitante y su comportamiento. Rastrea al visitante a través de dispositivos y canales de marketing. |  Sesión   r/collect |  Google |  Se utiliza para enviar datos a Google Analytics sobre el dispositivo del visitante y su comportamiento. Rastrea al visitante a través de dispositivos y canales de marketing. |  Sesión   _ga |  Google |  Registra una identificación única que se utiliza para generar datos estadísticos acerca de cómo utiliza el visitante el sitio web. |  2 años   _gat |  Google |  Utilizado por Google Analytics para controlar la tasa de peticiones |  1 día   _ga_# |  Google |  Recopila datos sobre el número de veces que un usuario ha visitado el sitio web además de las fechas de la primera visita y de la más reciente. Utilizada por Google Analytics. |  2 años   _gd# |  Google |  Se trata de una cookie de sesión de Google Analytics que se utiliza para generar datos estadísticos sobre cómo utiliza el sitio web que se elimina cuando sale de su navegador. |  Sesión   _gid |  Google |  Registra una identificación única que se utiliza para generar datos estadísticos acerca de cómo utiliza el visitante el sitio web. |  1 día      **Cookies de marketing**
-No Sí
-Las cookies de marketing se utilizan para rastrear a los visitantes en las páginas web. La intención es mostrar anuncios relevantes y atractivos para el usuario individual, y por lo tanto, más valiosos para los editores y terceros anunciantes.
-Aceptar
-Rechazar cookies
-Configurar
-Aceptar las cookies
-Rechazar las cookies
-Guardar mis preferencias
-← Atrás
-× Contenido no disponible
+          <t xml:space="preserve">Síguenos
+  *   *   *   *   *   *   *   *   *   *   *
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+LLÁMANOS
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+0
+0
+# BARNIZ MARINO BRILLO 750 ml
+Tienda / Exterior y Jardín / Barnices de exterior
+€ 12,72
+Precio incluido IVA (19%) € 2,03
+Disponible
+Añadir más
+Añadir a la cesta
+Ir al pago
+Comparte este producto con sus amigos
+Compartir Compartir Fíjelo
+BARNIZ MARINO BRILLO 750 ml
+Tienda / Exterior y Jardín / Barnices de exterior
+  * Mi cuenta   * Seguimiento de pedidos   * Cesta
+Mostrar precios en: EUR
+## ¿Necesitas más información?
+TE LLAMAMOS NOSOTROS
+Avenida de Moratalaz 141
+28030, Madrid
+hogaryhobby@gmail.com
+hogaryhobby@gmail.com
+914393334 \- 914399141 - 629224604
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+##### Síguenos
+  *   *   *   *   *   *   *   *   *   *   * 
+Mostrar más Mostrar menos
+### Horario de apertura
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+Enlaces de interés:
+  * Tintes y lasures al agua para madera en Moratalaz, Madrid   * Barnices y protectores para madera en Moratalaz Madrid   * Tienda de pavimentos y azulejos en Moratalaz, Madrid   * Obras y reformas integrales en Moratalaz, Madrid
+  * Aviso legal Aviso legal   * - Política de privacidad Política de privacidad   * - Política de cookies Política de cookies   * - Declaración accesibilidad Declaración accesibilidad   * - Política de envío y devoluciones Política de envío y devoluciones
+Share by:
 </t>
         </is>
       </c>
@@ -709,58 +854,94 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Pendientes de Plata y Topacio</t>
+          <t>LASUR AL AGUA INCOLORO 750 ML</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://latiendadelosminerales.com/pendientes/pendientes-de-piedras-semipreciosas-y-plata/pendientes-topacio-y-plata-54</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Pendientes realizados en topacio tallado y plata 925 mm.</t>
-        </is>
-      </c>
+          <t>https://www.hogaryhobby.com/tienda/LASUR-AL-AGUA-INCOLORO-750-ML-p672933451</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://latiendadelosminerales.com/28869-large_default/pendientes-topacio-y-plata-54.jpg</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
+          <t>https://d2j6dbq0eux0bg.cloudfront.net/images/103344402/4390428877.jpg</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>LASUR AL AGUA INCOLORO 750 ML</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>13,60€</t>
+          <t>8,25€</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t xml:space="preserve">  * Iniciar sesión 
-####  Iniciar sesión / Register
-__
-__
-Iniciar sesión
-¿Olvidaste tu contraseña? Crea una cuenta
-× ×
-Utilizamos cookies propias y de terceros para conocer los usos de nuestra tienda online y poder mejorarla, adaptar el contenido a tus gustos y personalizar nuestros anuncios, marketing y publicaciones en redes sociales. Puedes aceptarlas todas, rechazarlas o elegir tu configuración pulsando los botones correspondientes. Ten en cuenta que rechazar las cookies puede afectar a tu experiencia de compra.
-**Cookies necesarias**
-Siempre habilitado
-Las cookies necesarias ayudan a hacer una página web utilizable activando funciones básicas como la navegación en la página y el acceso a áreas seguras de la página web. La página web no puede funcionar adecuadamente sin estas cookies.  Nombre de la cookie | Proveedor | Objetivo | Expiración   ---|---|---|---   cookiesplus |  https://latiendadelosminerales.com |  Almacena las preferencias sobre cookies. |  1 año   PrestaShop-# |  https://latiendadelosminerales.com |  Esta cookie permite conservar abiertas las sesiones del usuario durante su visita y le permite pasar un pedido o toda una serie de funcionamientos como: fecha de adición de la cookie, idioma seleccionado, divisa utilizada, última categoría de producto visitado, productos recientemente vistos, acuerdo de utilización de servicios del sitio, identificador del cliente, identificador de conexión, apellido, nombre, estado conectado, su contraseña cifrada, e-mail relacionado con la cuenta del cliente y el identificador del carrito. |  480 horas      **Cookies de preferencias**
-No Sí
-Las cookies de preferencias permiten a la página web recordar información que cambia la forma en que la página se comporta o el aspecto que tiene, como su idioma preferido o la región en la que usted se encuentra.
-**Cookies estadísticas**
-No Sí
-Las cookies estadísticas ayudan a los propietarios de páginas web a comprender cómo interactúan los visitantes con las páginas web reuniendo y proporcionando información de forma anónima.  Nombre de la cookie | Proveedor | Objetivo | Expiración   ---|---|---|---   collect |  Google |  Se utiliza para enviar datos a Google Analytics sobre el dispositivo del visitante y su comportamiento. Rastrea al visitante a través de dispositivos y canales de marketing. |  Sesión   r/collect |  Google |  Se utiliza para enviar datos a Google Analytics sobre el dispositivo del visitante y su comportamiento. Rastrea al visitante a través de dispositivos y canales de marketing. |  Sesión   _ga |  Google |  Registra una identificación única que se utiliza para generar datos estadísticos acerca de cómo utiliza el visitante el sitio web. |  2 años   _gat |  Google |  Utilizado por Google Analytics para controlar la tasa de peticiones |  1 día   _ga_# |  Google |  Recopila datos sobre el número de veces que un usuario ha visitado el sitio web además de las fechas de la primera visita y de la más reciente. Utilizada por Google Analytics. |  2 años   _gd# |  Google |  Se trata de una cookie de sesión de Google Analytics que se utiliza para generar datos estadísticos sobre cómo utiliza el sitio web que se elimina cuando sale de su navegador. |  Sesión   _gid |  Google |  Registra una identificación única que se utiliza para generar datos estadísticos acerca de cómo utiliza el visitante el sitio web. |  1 día      **Cookies de marketing**
-No Sí
-Las cookies de marketing se utilizan para rastrear a los visitantes en las páginas web. La intención es mostrar anuncios relevantes y atractivos para el usuario individual, y por lo tanto, más valiosos para los editores y terceros anunciantes.
-Aceptar
-Rechazar cookies
-Configurar
-Aceptar las cookies
-Rechazar las cookies
-Guardar mis preferencias
-← Atrás
-× Contenido no disponible
+          <t xml:space="preserve">Síguenos
+  *   *   *   *   *   *   *   *   *   *   *
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+LLÁMANOS
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+0
+0
+# LASUR AL AGUA INCOLORO 750 ML
+Tienda / Exterior y Jardín / Lasur al agua
+€ 8,25
+Precio incluido IVA (19%) € 1,32
+Disponible
+Añadir más
+Añadir a la cesta
+Ir al pago
+Comparte este producto con sus amigos
+Compartir Compartir Fíjelo
+LASUR AL AGUA INCOLORO 750 ML
+Tienda / Exterior y Jardín / Lasur al agua
+  * Mi cuenta   * Seguimiento de pedidos   * Cesta
+Mostrar precios en: EUR
+## ¿Necesitas más información?
+TE LLAMAMOS NOSOTROS
+Avenida de Moratalaz 141
+28030, Madrid
+hogaryhobby@gmail.com
+hogaryhobby@gmail.com
+914393334 \- 914399141 - 629224604
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+##### Síguenos
+  *   *   *   *   *   *   *   *   *   *   * 
+Mostrar más Mostrar menos
+### Horario de apertura
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+Enlaces de interés:
+  * Tintes y lasures al agua para madera en Moratalaz, Madrid   * Barnices y protectores para madera en Moratalaz Madrid   * Tienda de pavimentos y azulejos en Moratalaz, Madrid   * Obras y reformas integrales en Moratalaz, Madrid
+  * Aviso legal Aviso legal   * - Política de privacidad Política de privacidad   * - Política de cookies Política de cookies   * - Declaración accesibilidad Declaración accesibilidad   * - Política de envío y devoluciones Política de envío y devoluciones
+Share by:
 </t>
         </is>
       </c>
@@ -768,58 +949,94 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Pendientes aguamarina y plata</t>
+          <t>BETÚN DE JUDEA 750 ML</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://latiendadelosminerales.com/pendientes/pendientes-de-piedras-semipreciosas-y-plata/pendientes-aguamarina-y-plata-08</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Pendientes realizados en aguamarina y plata 925 mm.</t>
-        </is>
-      </c>
+          <t>https://www.hogaryhobby.com/tienda/BETUN-DE-JUDEA-750-ML-p674409896</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://latiendadelosminerales.com/28861-large_default/pendientes-aguamarina-y-plata-08.jpg</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
+          <t>https://d2j6dbq0eux0bg.cloudfront.net/images/103344402/4402963080.jpg</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>BETÚN DE JUDEA 750 ML</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>18,70€</t>
+          <t>8,05€</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t xml:space="preserve">  * Iniciar sesión 
-####  Iniciar sesión / Register
-__
-__
-Iniciar sesión
-¿Olvidaste tu contraseña? Crea una cuenta
-× ×
-Utilizamos cookies propias y de terceros para conocer los usos de nuestra tienda online y poder mejorarla, adaptar el contenido a tus gustos y personalizar nuestros anuncios, marketing y publicaciones en redes sociales. Puedes aceptarlas todas, rechazarlas o elegir tu configuración pulsando los botones correspondientes. Ten en cuenta que rechazar las cookies puede afectar a tu experiencia de compra.
-**Cookies necesarias**
-Siempre habilitado
-Las cookies necesarias ayudan a hacer una página web utilizable activando funciones básicas como la navegación en la página y el acceso a áreas seguras de la página web. La página web no puede funcionar adecuadamente sin estas cookies.  Nombre de la cookie | Proveedor | Objetivo | Expiración   ---|---|---|---   cookiesplus |  https://latiendadelosminerales.com |  Almacena las preferencias sobre cookies. |  1 año   PrestaShop-# |  https://latiendadelosminerales.com |  Esta cookie permite conservar abiertas las sesiones del usuario durante su visita y le permite pasar un pedido o toda una serie de funcionamientos como: fecha de adición de la cookie, idioma seleccionado, divisa utilizada, última categoría de producto visitado, productos recientemente vistos, acuerdo de utilización de servicios del sitio, identificador del cliente, identificador de conexión, apellido, nombre, estado conectado, su contraseña cifrada, e-mail relacionado con la cuenta del cliente y el identificador del carrito. |  480 horas      **Cookies de preferencias**
-No Sí
-Las cookies de preferencias permiten a la página web recordar información que cambia la forma en que la página se comporta o el aspecto que tiene, como su idioma preferido o la región en la que usted se encuentra.
-**Cookies estadísticas**
-No Sí
-Las cookies estadísticas ayudan a los propietarios de páginas web a comprender cómo interactúan los visitantes con las páginas web reuniendo y proporcionando información de forma anónima.  Nombre de la cookie | Proveedor | Objetivo | Expiración   ---|---|---|---   collect |  Google |  Se utiliza para enviar datos a Google Analytics sobre el dispositivo del visitante y su comportamiento. Rastrea al visitante a través de dispositivos y canales de marketing. |  Sesión   r/collect |  Google |  Se utiliza para enviar datos a Google Analytics sobre el dispositivo del visitante y su comportamiento. Rastrea al visitante a través de dispositivos y canales de marketing. |  Sesión   _ga |  Google |  Registra una identificación única que se utiliza para generar datos estadísticos acerca de cómo utiliza el visitante el sitio web. |  2 años   _gat |  Google |  Utilizado por Google Analytics para controlar la tasa de peticiones |  1 día   _ga_# |  Google |  Recopila datos sobre el número de veces que un usuario ha visitado el sitio web además de las fechas de la primera visita y de la más reciente. Utilizada por Google Analytics. |  2 años   _gd# |  Google |  Se trata de una cookie de sesión de Google Analytics que se utiliza para generar datos estadísticos sobre cómo utiliza el sitio web que se elimina cuando sale de su navegador. |  Sesión   _gid |  Google |  Registra una identificación única que se utiliza para generar datos estadísticos acerca de cómo utiliza el visitante el sitio web. |  1 día      **Cookies de marketing**
-No Sí
-Las cookies de marketing se utilizan para rastrear a los visitantes en las páginas web. La intención es mostrar anuncios relevantes y atractivos para el usuario individual, y por lo tanto, más valiosos para los editores y terceros anunciantes.
-Aceptar
-Rechazar cookies
-Configurar
-Aceptar las cookies
-Rechazar las cookies
-Guardar mis preferencias
-← Atrás
-× Contenido no disponible
+          <t xml:space="preserve">Síguenos
+  *   *   *   *   *   *   *   *   *   *   *
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+LLÁMANOS
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+0
+0
+# BETÚN DE JUDEA 750 ML
+Tienda / Restauración y decoración madera
+€ 8,05
+Precio incluido IVA (19%) € 1,29
+Disponible
+Añadir más
+Añadir a la cesta
+Ir al pago
+Comparte este producto con sus amigos
+Compartir Compartir Fíjelo
+BETÚN DE JUDEA 750 ML
+Tienda / Restauración y decoración madera
+  * Mi cuenta   * Seguimiento de pedidos   * Cesta
+Mostrar precios en: EUR
+## ¿Necesitas más información?
+TE LLAMAMOS NOSOTROS
+Avenida de Moratalaz 141
+28030, Madrid
+hogaryhobby@gmail.com
+hogaryhobby@gmail.com
+914393334 \- 914399141 - 629224604
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+##### Síguenos
+  *   *   *   *   *   *   *   *   *   *   * 
+Mostrar más Mostrar menos
+### Horario de apertura
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+Enlaces de interés:
+  * Tintes y lasures al agua para madera en Moratalaz, Madrid   * Barnices y protectores para madera en Moratalaz Madrid   * Tienda de pavimentos y azulejos en Moratalaz, Madrid   * Obras y reformas integrales en Moratalaz, Madrid
+  * Aviso legal Aviso legal   * - Política de privacidad Política de privacidad   * - Política de cookies Política de cookies   * - Declaración accesibilidad Declaración accesibilidad   * - Política de envío y devoluciones Política de envío y devoluciones
+Share by:
 </t>
         </is>
       </c>
@@ -827,58 +1044,94 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Pendientes cuarzo rosa y plata</t>
+          <t>ACEITE LINAZA COCIDO 375 ML</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://latiendadelosminerales.com/pendientes/pendientes-de-piedras-semipreciosas-y-plata/pendientes-cuarzo-rosa-y-plata-50</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Pendientes realizados en cuarzo rosa y plata 925 mm</t>
-        </is>
-      </c>
+          <t>https://www.hogaryhobby.com/tienda/ACEITE-LINAZA-COCIDO-375-ML-p674408221</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://latiendadelosminerales.com/28852-large_default/pendientes-cuarzo-rosa-y-plata-50.jpg</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
+          <t>https://d2j6dbq0eux0bg.cloudfront.net/images/103344402/4402758798.jpg</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>ACEITE LINAZA COCIDO 375 ML</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>23,80€</t>
+          <t>5,00€</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t xml:space="preserve">  * Iniciar sesión 
-####  Iniciar sesión / Register
-__
-__
-Iniciar sesión
-¿Olvidaste tu contraseña? Crea una cuenta
-× ×
-Utilizamos cookies propias y de terceros para conocer los usos de nuestra tienda online y poder mejorarla, adaptar el contenido a tus gustos y personalizar nuestros anuncios, marketing y publicaciones en redes sociales. Puedes aceptarlas todas, rechazarlas o elegir tu configuración pulsando los botones correspondientes. Ten en cuenta que rechazar las cookies puede afectar a tu experiencia de compra.
-**Cookies necesarias**
-Siempre habilitado
-Las cookies necesarias ayudan a hacer una página web utilizable activando funciones básicas como la navegación en la página y el acceso a áreas seguras de la página web. La página web no puede funcionar adecuadamente sin estas cookies.  Nombre de la cookie | Proveedor | Objetivo | Expiración   ---|---|---|---   cookiesplus |  https://latiendadelosminerales.com |  Almacena las preferencias sobre cookies. |  1 año   PrestaShop-# |  https://latiendadelosminerales.com |  Esta cookie permite conservar abiertas las sesiones del usuario durante su visita y le permite pasar un pedido o toda una serie de funcionamientos como: fecha de adición de la cookie, idioma seleccionado, divisa utilizada, última categoría de producto visitado, productos recientemente vistos, acuerdo de utilización de servicios del sitio, identificador del cliente, identificador de conexión, apellido, nombre, estado conectado, su contraseña cifrada, e-mail relacionado con la cuenta del cliente y el identificador del carrito. |  480 horas      **Cookies de preferencias**
-No Sí
-Las cookies de preferencias permiten a la página web recordar información que cambia la forma en que la página se comporta o el aspecto que tiene, como su idioma preferido o la región en la que usted se encuentra.
-**Cookies estadísticas**
-No Sí
-Las cookies estadísticas ayudan a los propietarios de páginas web a comprender cómo interactúan los visitantes con las páginas web reuniendo y proporcionando información de forma anónima.  Nombre de la cookie | Proveedor | Objetivo | Expiración   ---|---|---|---   collect |  Google |  Se utiliza para enviar datos a Google Analytics sobre el dispositivo del visitante y su comportamiento. Rastrea al visitante a través de dispositivos y canales de marketing. |  Sesión   r/collect |  Google |  Se utiliza para enviar datos a Google Analytics sobre el dispositivo del visitante y su comportamiento. Rastrea al visitante a través de dispositivos y canales de marketing. |  Sesión   _ga |  Google |  Registra una identificación única que se utiliza para generar datos estadísticos acerca de cómo utiliza el visitante el sitio web. |  2 años   _gat |  Google |  Utilizado por Google Analytics para controlar la tasa de peticiones |  1 día   _ga_# |  Google |  Recopila datos sobre el número de veces que un usuario ha visitado el sitio web además de las fechas de la primera visita y de la más reciente. Utilizada por Google Analytics. |  2 años   _gd# |  Google |  Se trata de una cookie de sesión de Google Analytics que se utiliza para generar datos estadísticos sobre cómo utiliza el sitio web que se elimina cuando sale de su navegador. |  Sesión   _gid |  Google |  Registra una identificación única que se utiliza para generar datos estadísticos acerca de cómo utiliza el visitante el sitio web. |  1 día      **Cookies de marketing**
-No Sí
-Las cookies de marketing se utilizan para rastrear a los visitantes en las páginas web. La intención es mostrar anuncios relevantes y atractivos para el usuario individual, y por lo tanto, más valiosos para los editores y terceros anunciantes.
-Aceptar
-Rechazar cookies
-Configurar
-Aceptar las cookies
-Rechazar las cookies
-Guardar mis preferencias
-← Atrás
-× Contenido no disponible
+          <t xml:space="preserve">Síguenos
+  *   *   *   *   *   *   *   *   *   *   *
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+LLÁMANOS
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+0
+0
+# ACEITE LINAZA COCIDO 375 ML
+Tienda / Exterior y Jardín / Aceites
+€ 5,00
+Precio incluido IVA (19%) € 0,80
+Disponible
+Añadir más
+Añadir a la cesta
+Ir al pago
+Comparte este producto con sus amigos
+Compartir Compartir Fíjelo
+ACEITE LINAZA COCIDO 375 ML
+Tienda / Exterior y Jardín / Aceites
+  * Mi cuenta   * Seguimiento de pedidos   * Cesta
+Mostrar precios en: EUR
+## ¿Necesitas más información?
+TE LLAMAMOS NOSOTROS
+Avenida de Moratalaz 141
+28030, Madrid
+hogaryhobby@gmail.com
+hogaryhobby@gmail.com
+914393334 \- 914399141 - 629224604
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+##### Síguenos
+  *   *   *   *   *   *   *   *   *   *   * 
+Mostrar más Mostrar menos
+### Horario de apertura
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+Enlaces de interés:
+  * Tintes y lasures al agua para madera en Moratalaz, Madrid   * Barnices y protectores para madera en Moratalaz Madrid   * Tienda de pavimentos y azulejos en Moratalaz, Madrid   * Obras y reformas integrales en Moratalaz, Madrid
+  * Aviso legal Aviso legal   * - Política de privacidad Política de privacidad   * - Política de cookies Política de cookies   * - Declaración accesibilidad Declaración accesibilidad   * - Política de envío y devoluciones Política de envío y devoluciones
+Share by:
 </t>
         </is>
       </c>
@@ -886,58 +1139,4465 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Pendientes ópalo blanco y plata</t>
+          <t>ACEITE TEKA COLOR TEKA 750 ML</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://latiendadelosminerales.com/pendientes/pendientes-de-piedras-semipreciosas-y-plata/pendientes-opalo-blanco-y-plata-09</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Pendientes realizados en auténtico ópalo blanco de gran calidad y plata 925 mm.</t>
-        </is>
-      </c>
+          <t>https://www.hogaryhobby.com/tienda/ACEITE-TEKA-COLOR-TEKA-750-ML-p674407998</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://latiendadelosminerales.com/28848-large_default/pendientes-opalo-blanco-y-plata-09.jpg</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
+          <t>https://d2j6dbq0eux0bg.cloudfront.net/images/103344402/4402861024.jpg</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>ACEITE TEKA COLOR TEKA 750 ML</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>24,65€</t>
+          <t>8,50€</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t xml:space="preserve">  * Iniciar sesión 
-####  Iniciar sesión / Register
-__
-__
-Iniciar sesión
-¿Olvidaste tu contraseña? Crea una cuenta
-× ×
-Utilizamos cookies propias y de terceros para conocer los usos de nuestra tienda online y poder mejorarla, adaptar el contenido a tus gustos y personalizar nuestros anuncios, marketing y publicaciones en redes sociales. Puedes aceptarlas todas, rechazarlas o elegir tu configuración pulsando los botones correspondientes. Ten en cuenta que rechazar las cookies puede afectar a tu experiencia de compra.
-**Cookies necesarias**
-Siempre habilitado
-Las cookies necesarias ayudan a hacer una página web utilizable activando funciones básicas como la navegación en la página y el acceso a áreas seguras de la página web. La página web no puede funcionar adecuadamente sin estas cookies.  Nombre de la cookie | Proveedor | Objetivo | Expiración   ---|---|---|---   cookiesplus |  https://latiendadelosminerales.com |  Almacena las preferencias sobre cookies. |  1 año   PrestaShop-# |  https://latiendadelosminerales.com |  Esta cookie permite conservar abiertas las sesiones del usuario durante su visita y le permite pasar un pedido o toda una serie de funcionamientos como: fecha de adición de la cookie, idioma seleccionado, divisa utilizada, última categoría de producto visitado, productos recientemente vistos, acuerdo de utilización de servicios del sitio, identificador del cliente, identificador de conexión, apellido, nombre, estado conectado, su contraseña cifrada, e-mail relacionado con la cuenta del cliente y el identificador del carrito. |  480 horas      **Cookies de preferencias**
-No Sí
-Las cookies de preferencias permiten a la página web recordar información que cambia la forma en que la página se comporta o el aspecto que tiene, como su idioma preferido o la región en la que usted se encuentra.
-**Cookies estadísticas**
-No Sí
-Las cookies estadísticas ayudan a los propietarios de páginas web a comprender cómo interactúan los visitantes con las páginas web reuniendo y proporcionando información de forma anónima.  Nombre de la cookie | Proveedor | Objetivo | Expiración   ---|---|---|---   collect |  Google |  Se utiliza para enviar datos a Google Analytics sobre el dispositivo del visitante y su comportamiento. Rastrea al visitante a través de dispositivos y canales de marketing. |  Sesión   r/collect |  Google |  Se utiliza para enviar datos a Google Analytics sobre el dispositivo del visitante y su comportamiento. Rastrea al visitante a través de dispositivos y canales de marketing. |  Sesión   _ga |  Google |  Registra una identificación única que se utiliza para generar datos estadísticos acerca de cómo utiliza el visitante el sitio web. |  2 años   _gat |  Google |  Utilizado por Google Analytics para controlar la tasa de peticiones |  1 día   _ga_# |  Google |  Recopila datos sobre el número de veces que un usuario ha visitado el sitio web además de las fechas de la primera visita y de la más reciente. Utilizada por Google Analytics. |  2 años   _gd# |  Google |  Se trata de una cookie de sesión de Google Analytics que se utiliza para generar datos estadísticos sobre cómo utiliza el sitio web que se elimina cuando sale de su navegador. |  Sesión   _gid |  Google |  Registra una identificación única que se utiliza para generar datos estadísticos acerca de cómo utiliza el visitante el sitio web. |  1 día      **Cookies de marketing**
-No Sí
-Las cookies de marketing se utilizan para rastrear a los visitantes en las páginas web. La intención es mostrar anuncios relevantes y atractivos para el usuario individual, y por lo tanto, más valiosos para los editores y terceros anunciantes.
-Aceptar
-Rechazar cookies
-Configurar
-Aceptar las cookies
-Rechazar las cookies
-Guardar mis preferencias
-← Atrás
-× Contenido no disponible
+          <t xml:space="preserve">Síguenos
+  *   *   *   *   *   *   *   *   *   *   *
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+LLÁMANOS
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+0
+0
+# ACEITE TEKA COLOR TEKA 750 ML
+Tienda / Exterior y Jardín / Aceites
+€ 8,50
+Precio incluido IVA (19%) € 1,36
+Disponible
+Añadir más
+Añadir a la cesta
+Ir al pago
+Comparte este producto con sus amigos
+Compartir Compartir Fíjelo
+ACEITE TEKA COLOR TEKA 750 ML
+Tienda / Exterior y Jardín / Aceites
+  * Mi cuenta   * Seguimiento de pedidos   * Cesta
+Mostrar precios en: EUR
+## ¿Necesitas más información?
+TE LLAMAMOS NOSOTROS
+Avenida de Moratalaz 141
+28030, Madrid
+hogaryhobby@gmail.com
+hogaryhobby@gmail.com
+914393334 \- 914399141 - 629224604
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+##### Síguenos
+  *   *   *   *   *   *   *   *   *   *   * 
+Mostrar más Mostrar menos
+### Horario de apertura
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+Enlaces de interés:
+  * Tintes y lasures al agua para madera en Moratalaz, Madrid   * Barnices y protectores para madera en Moratalaz Madrid   * Tienda de pavimentos y azulejos en Moratalaz, Madrid   * Obras y reformas integrales en Moratalaz, Madrid
+  * Aviso legal Aviso legal   * - Política de privacidad Política de privacidad   * - Política de cookies Política de cookies   * - Declaración accesibilidad Declaración accesibilidad   * - Política de envío y devoluciones Política de envío y devoluciones
+Share by:
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ACEITE LINAZA COCIDO 750 ML</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://www.hogaryhobby.com/tienda/ACEITE-LINAZA-COCIDO-750-ML-p674409722</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://d2j6dbq0eux0bg.cloudfront.net/images/103344402/4402755480.jpg</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>ACEITE LINAZA COCIDO 750 ML</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7,91€</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Síguenos
+  *   *   *   *   *   *   *   *   *   *   *
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+LLÁMANOS
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+0
+0
+# ACEITE LINAZA COCIDO 750 ML
+Tienda / Exterior y Jardín / Aceites
+€ 7,91
+Precio incluido IVA (19%) € 1,26
+Disponible
+Añadir más
+Añadir a la cesta
+Ir al pago
+Comparte este producto con sus amigos
+Compartir Compartir Fíjelo
+ACEITE LINAZA COCIDO 750 ML
+Tienda / Exterior y Jardín / Aceites
+  * Mi cuenta   * Seguimiento de pedidos   * Cesta
+Mostrar precios en: EUR
+## ¿Necesitas más información?
+TE LLAMAMOS NOSOTROS
+Avenida de Moratalaz 141
+28030, Madrid
+hogaryhobby@gmail.com
+hogaryhobby@gmail.com
+914393334 \- 914399141 - 629224604
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+##### Síguenos
+  *   *   *   *   *   *   *   *   *   *   * 
+Mostrar más Mostrar menos
+### Horario de apertura
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+Enlaces de interés:
+  * Tintes y lasures al agua para madera en Moratalaz, Madrid   * Barnices y protectores para madera en Moratalaz Madrid   * Tienda de pavimentos y azulejos en Moratalaz, Madrid   * Obras y reformas integrales en Moratalaz, Madrid
+  * Aviso legal Aviso legal   * - Política de privacidad Política de privacidad   * - Política de cookies Política de cookies   * - Declaración accesibilidad Declaración accesibilidad   * - Política de envío y devoluciones Política de envío y devoluciones
+Share by:
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>LANA ACERO 1 KG GRUESO</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://www.hogaryhobby.com/tienda/LANA-ACERO-1-KG-GRUESO-p674408223</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://d2j6dbq0eux0bg.cloudfront.net/images/103344402/4402869254.jpg</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>LANA ACERO 1 KG GRUESO</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>10,44€</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Síguenos
+  *   *   *   *   *   *   *   *   *   *   *
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+LLÁMANOS
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+0
+0
+# LANA ACERO 1 KG GRUESO
+Tienda / Accesorios
+€ 10,44
+Precio incluido IVA (19%) € 1,67
+Disponible
+Añadir más
+Añadir a la cesta
+Ir al pago
+Comparte este producto con sus amigos
+Compartir Compartir Fíjelo
+LANA ACERO 1 KG GRUESO
+Tienda / Accesorios
+  * Mi cuenta   * Seguimiento de pedidos   * Cesta
+Mostrar precios en: EUR
+## ¿Necesitas más información?
+TE LLAMAMOS NOSOTROS
+Avenida de Moratalaz 141
+28030, Madrid
+hogaryhobby@gmail.com
+hogaryhobby@gmail.com
+914393334 \- 914399141 - 629224604
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+##### Síguenos
+  *   *   *   *   *   *   *   *   *   *   * 
+Mostrar más Mostrar menos
+### Horario de apertura
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+Enlaces de interés:
+  * Tintes y lasures al agua para madera en Moratalaz, Madrid   * Barnices y protectores para madera en Moratalaz Madrid   * Tienda de pavimentos y azulejos en Moratalaz, Madrid   * Obras y reformas integrales en Moratalaz, Madrid
+  * Aviso legal Aviso legal   * - Política de privacidad Política de privacidad   * - Política de cookies Política de cookies   * - Declaración accesibilidad Declaración accesibilidad   * - Política de envío y devoluciones Política de envío y devoluciones
+Share by:
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>LASUR AL AGUA ROBLE 4 L</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://www.hogaryhobby.com/tienda/LASUR-AL-AGUA-ROBLE-4-L-p674409891</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://d2j6dbq0eux0bg.cloudfront.net/images/103344402/4402877855.jpg</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>LASUR AL AGUA ROBLE 4 L</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>35,68€</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Síguenos
+  *   *   *   *   *   *   *   *   *   *   *
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+LLÁMANOS
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+0
+0
+# LASUR AL AGUA ROBLE 4 L
+Tienda / Exterior y Jardín / Lasur al agua
+€ 35,68
+Precio incluido IVA (19%) € 5,70
+Disponible
+Añadir más
+Añadir a la cesta
+Ir al pago
+Comparte este producto con sus amigos
+Compartir Compartir Fíjelo
+LASUR AL AGUA ROBLE 4 L
+Tienda / Exterior y Jardín / Lasur al agua
+  * Mi cuenta   * Seguimiento de pedidos   * Cesta
+Mostrar precios en: EUR
+## ¿Necesitas más información?
+TE LLAMAMOS NOSOTROS
+Avenida de Moratalaz 141
+28030, Madrid
+hogaryhobby@gmail.com
+hogaryhobby@gmail.com
+914393334 \- 914399141 - 629224604
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+##### Síguenos
+  *   *   *   *   *   *   *   *   *   *   * 
+Mostrar más Mostrar menos
+### Horario de apertura
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+Enlaces de interés:
+  * Tintes y lasures al agua para madera en Moratalaz, Madrid   * Barnices y protectores para madera en Moratalaz Madrid   * Tienda de pavimentos y azulejos en Moratalaz, Madrid   * Obras y reformas integrales en Moratalaz, Madrid
+  * Aviso legal Aviso legal   * - Política de privacidad Política de privacidad   * - Política de cookies Política de cookies   * - Declaración accesibilidad Declaración accesibilidad   * - Política de envío y devoluciones Política de envío y devoluciones
+Share by:
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>BARNIZ TINTE SATINADO AVELLANA 375 ML</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://www.hogaryhobby.com/tienda/BARNIZ-TINTE-SATINADO-AVELLANA-375-ML-p674409728</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://d2j6dbq0eux0bg.cloudfront.net/images/103344402/4402935846.jpg</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>BARNIZ TINTE SATINADO AVELLANA 375 ML</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5,91€</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Síguenos
+  *   *   *   *   *   *   *   *   *   *   *
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+LLÁMANOS
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+0
+0
+# BARNIZ TINTE SATINADO AVELLANA 375 ML
+Tienda / Baniz de interior
+€ 5,91
+Precio incluido IVA (19%) € 0,94
+Disponible
+Añadir más
+Añadir a la cesta
+Ir al pago
+Comparte este producto con sus amigos
+Compartir Compartir Fíjelo
+BARNIZ TINTE SATINADO AVELLANA 375 ML
+Tienda / Baniz de interior
+  * Mi cuenta   * Seguimiento de pedidos   * Cesta
+Mostrar precios en: EUR
+## ¿Necesitas más información?
+TE LLAMAMOS NOSOTROS
+Avenida de Moratalaz 141
+28030, Madrid
+hogaryhobby@gmail.com
+hogaryhobby@gmail.com
+914393334 \- 914399141 - 629224604
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+##### Síguenos
+  *   *   *   *   *   *   *   *   *   *   * 
+Mostrar más Mostrar menos
+### Horario de apertura
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+Enlaces de interés:
+  * Tintes y lasures al agua para madera en Moratalaz, Madrid   * Barnices y protectores para madera en Moratalaz Madrid   * Tienda de pavimentos y azulejos en Moratalaz, Madrid   * Obras y reformas integrales en Moratalaz, Madrid
+  * Aviso legal Aviso legal   * - Política de privacidad Política de privacidad   * - Política de cookies Política de cookies   * - Declaración accesibilidad Declaración accesibilidad   * - Política de envío y devoluciones Política de envío y devoluciones
+Share by:
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>BARNIZ LADRILLO AL AGUA 4 L</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://www.hogaryhobby.com/tienda/BARNIZ-LADRILLO-AL-AGUA-4-L-p674409730</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://d2j6dbq0eux0bg.cloudfront.net/images/103344402/4402911365.jpg</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>BARNIZ LADRILLO AL AGUA 4 L</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>42,00€</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Síguenos
+  *   *   *   *   *   *   *   *   *   *   *
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+LLÁMANOS
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+0
+0
+# BARNIZ LADRILLO AL AGUA 4 L
+Tienda / Exterior y Jardín / Barnices de exterior
+€ 42,00
+Precio incluido IVA (19%) € 6,71
+Disponible
+Añadir más
+Añadir a la cesta
+Ir al pago
+Comparte este producto con sus amigos
+Compartir Compartir Fíjelo
+BARNIZ LADRILLO AL AGUA 4 L
+Tienda / Exterior y Jardín / Barnices de exterior
+  * Mi cuenta   * Seguimiento de pedidos   * Cesta
+Mostrar precios en: EUR
+## ¿Necesitas más información?
+TE LLAMAMOS NOSOTROS
+Avenida de Moratalaz 141
+28030, Madrid
+hogaryhobby@gmail.com
+hogaryhobby@gmail.com
+914393334 \- 914399141 - 629224604
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+##### Síguenos
+  *   *   *   *   *   *   *   *   *   *   * 
+Mostrar más Mostrar menos
+### Horario de apertura
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+Enlaces de interés:
+  * Tintes y lasures al agua para madera en Moratalaz, Madrid   * Barnices y protectores para madera en Moratalaz Madrid   * Tienda de pavimentos y azulejos en Moratalaz, Madrid   * Obras y reformas integrales en Moratalaz, Madrid
+  * Aviso legal Aviso legal   * - Política de privacidad Política de privacidad   * - Política de cookies Política de cookies   * - Declaración accesibilidad Declaración accesibilidad   * - Política de envío y devoluciones Política de envío y devoluciones
+Share by:
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ALUMINIO ROLLO 2,2KG MUY GRUESO (nº2)</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://www.hogaryhobby.com/tienda/ALUMINIO-ROLLO-2-2KG-MUY-GRUESO-no2-p674409725</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://d2j6dbq0eux0bg.cloudfront.net/images/103344402/4402881000.jpg</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ALUMINIO ROLLO 2,2KG MUY GRUESO (nº2)</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>30,72€</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Síguenos
+  *   *   *   *   *   *   *   *   *   *   *
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+LLÁMANOS
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+0
+0
+# ALUMINIO ROLLO 2,2KG MUY GRUESO (nº2)
+Tienda / Accesorios
+€ 30,72
+Precio incluido IVA (19%) € 4,90
+Disponible
+Añadir más
+Añadir a la cesta
+Ir al pago
+Comparte este producto con sus amigos
+Compartir Compartir Fíjelo
+ALUMINIO ROLLO 2,2KG MUY GRUESO (nº2)
+Tienda / Accesorios
+  * Mi cuenta   * Seguimiento de pedidos   * Cesta
+Mostrar precios en: EUR
+## ¿Necesitas más información?
+TE LLAMAMOS NOSOTROS
+Avenida de Moratalaz 141
+28030, Madrid
+hogaryhobby@gmail.com
+hogaryhobby@gmail.com
+914393334 \- 914399141 - 629224604
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+##### Síguenos
+  *   *   *   *   *   *   *   *   *   *   * 
+Mostrar más Mostrar menos
+### Horario de apertura
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+Enlaces de interés:
+  * Tintes y lasures al agua para madera en Moratalaz, Madrid   * Barnices y protectores para madera en Moratalaz Madrid   * Tienda de pavimentos y azulejos en Moratalaz, Madrid   * Obras y reformas integrales en Moratalaz, Madrid
+  * Aviso legal Aviso legal   * - Política de privacidad Política de privacidad   * - Política de cookies Política de cookies   * - Declaración accesibilidad Declaración accesibilidad   * - Política de envío y devoluciones Política de envío y devoluciones
+Share by:
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>BARNIZ LADRILLO AL AGUA 750 ML</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://www.hogaryhobby.com/tienda/BARNIZ-LADRILLO-AL-AGUA-750-ML-p674434003</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://d2j6dbq0eux0bg.cloudfront.net/images/103344402/4402909215.jpg</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>BARNIZ LADRILLO AL AGUA 750 ML</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9,14€</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Síguenos
+  *   *   *   *   *   *   *   *   *   *   *
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+LLÁMANOS
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+0
+0
+# BARNIZ LADRILLO AL AGUA 750 ML
+Tienda / Exterior y Jardín / Barnices de exterior
+€ 9,14
+Precio incluido IVA (19%) € 1,46
+Disponible
+Añadir más
+Añadir a la cesta
+Ir al pago
+Comparte este producto con sus amigos
+Compartir Compartir Fíjelo
+BARNIZ LADRILLO AL AGUA 750 ML
+Tienda / Exterior y Jardín / Barnices de exterior
+  * Mi cuenta   * Seguimiento de pedidos   * Cesta
+Mostrar precios en: EUR
+## ¿Necesitas más información?
+TE LLAMAMOS NOSOTROS
+Avenida de Moratalaz 141
+28030, Madrid
+hogaryhobby@gmail.com
+hogaryhobby@gmail.com
+914393334 \- 914399141 - 629224604
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+##### Síguenos
+  *   *   *   *   *   *   *   *   *   *   * 
+Mostrar más Mostrar menos
+### Horario de apertura
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+Enlaces de interés:
+  * Tintes y lasures al agua para madera en Moratalaz, Madrid   * Barnices y protectores para madera en Moratalaz Madrid   * Tienda de pavimentos y azulejos en Moratalaz, Madrid   * Obras y reformas integrales en Moratalaz, Madrid
+  * Aviso legal Aviso legal   * - Política de privacidad Política de privacidad   * - Política de cookies Política de cookies   * - Declaración accesibilidad Declaración accesibilidad   * - Política de envío y devoluciones Política de envío y devoluciones
+Share by:
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>BETÚN DE JUDEA 375 ML</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://www.hogaryhobby.com/tienda/BETUN-DE-JUDEA-375-ML-p674409895</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://d2j6dbq0eux0bg.cloudfront.net/images/103344402/4402962876.jpg</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>BETÚN DE JUDEA 375 ML</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5,11€</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Síguenos
+  *   *   *   *   *   *   *   *   *   *   *
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+LLÁMANOS
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+0
+0
+# BETÚN DE JUDEA 375 ML
+Tienda / Restauración y decoración madera
+€ 5,11
+Precio incluido IVA (19%) € 0,82
+Disponible
+Añadir más
+Añadir a la cesta
+Ir al pago
+Comparte este producto con sus amigos
+Compartir Compartir Fíjelo
+BETÚN DE JUDEA 375 ML
+Tienda / Restauración y decoración madera
+  * Mi cuenta   * Seguimiento de pedidos   * Cesta
+Mostrar precios en: EUR
+## ¿Necesitas más información?
+TE LLAMAMOS NOSOTROS
+Avenida de Moratalaz 141
+28030, Madrid
+hogaryhobby@gmail.com
+hogaryhobby@gmail.com
+914393334 \- 914399141 - 629224604
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+##### Síguenos
+  *   *   *   *   *   *   *   *   *   *   * 
+Mostrar más Mostrar menos
+### Horario de apertura
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+Enlaces de interés:
+  * Tintes y lasures al agua para madera en Moratalaz, Madrid   * Barnices y protectores para madera en Moratalaz Madrid   * Tienda de pavimentos y azulejos en Moratalaz, Madrid   * Obras y reformas integrales en Moratalaz, Madrid
+  * Aviso legal Aviso legal   * - Política de privacidad Política de privacidad   * - Política de cookies Política de cookies   * - Declaración accesibilidad Declaración accesibilidad   * - Política de envío y devoluciones Política de envío y devoluciones
+Share by:
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>BARNIZ TINTE SATINADO NOGAL 750 ML</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://www.hogaryhobby.com/tienda/BARNIZ-TINTE-SATINADO-NOGAL-750-ML-p674408228</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://d2j6dbq0eux0bg.cloudfront.net/images/103344402/4402943114.jpg</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>BARNIZ TINTE SATINADO NOGAL 750 ML</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9,47€</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Síguenos
+  *   *   *   *   *   *   *   *   *   *   *
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+LLÁMANOS
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+0
+0
+# BARNIZ TINTE SATINADO NOGAL 750 ML
+Tienda / Baniz de interior
+€ 9,47
+Precio incluido IVA (19%) € 1,51
+Disponible
+Añadir más
+Añadir a la cesta
+Ir al pago
+Comparte este producto con sus amigos
+Compartir Compartir Fíjelo
+BARNIZ TINTE SATINADO NOGAL 750 ML
+Tienda / Baniz de interior
+  * Mi cuenta   * Seguimiento de pedidos   * Cesta
+Mostrar precios en: EUR
+## ¿Necesitas más información?
+TE LLAMAMOS NOSOTROS
+Avenida de Moratalaz 141
+28030, Madrid
+hogaryhobby@gmail.com
+hogaryhobby@gmail.com
+914393334 \- 914399141 - 629224604
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+##### Síguenos
+  *   *   *   *   *   *   *   *   *   *   * 
+Mostrar más Mostrar menos
+### Horario de apertura
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+Enlaces de interés:
+  * Tintes y lasures al agua para madera en Moratalaz, Madrid   * Barnices y protectores para madera en Moratalaz Madrid   * Tienda de pavimentos y azulejos en Moratalaz, Madrid   * Obras y reformas integrales en Moratalaz, Madrid
+  * Aviso legal Aviso legal   * - Política de privacidad Política de privacidad   * - Política de cookies Política de cookies   * - Declaración accesibilidad Declaración accesibilidad   * - Política de envío y devoluciones Política de envío y devoluciones
+Share by:
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LASUR AL AGUA NOGAL 4 L</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://www.hogaryhobby.com/tienda/LASUR-AL-AGUA-NOGAL-4-L-p672951422</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://d2j6dbq0eux0bg.cloudfront.net/images/103344402/4390414342.jpg</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>LASUR AL AGUA NOGAL 4 L</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>35,68€</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Síguenos
+  *   *   *   *   *   *   *   *   *   *   *
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+LLÁMANOS
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+0
+0
++2
+# LASUR AL AGUA NOGAL 4 L
+Tienda / Exterior y Jardín / Lasur al agua
+€ 35,68
+Precio incluido IVA (19%) € 5,70
+Disponible
+Añadir más
+Añadir a la cesta
+Ir al pago
+Comparte este producto con sus amigos
+Compartir Compartir Fíjelo
+LASUR AL AGUA NOGAL 4 L
+Tienda / Exterior y Jardín / Lasur al agua
+  * Mi cuenta   * Seguimiento de pedidos   * Cesta
+Mostrar precios en: EUR
+## ¿Necesitas más información?
+TE LLAMAMOS NOSOTROS
+Avenida de Moratalaz 141
+28030, Madrid
+hogaryhobby@gmail.com
+hogaryhobby@gmail.com
+914393334 \- 914399141 - 629224604
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+##### Síguenos
+  *   *   *   *   *   *   *   *   *   *   * 
+Mostrar más Mostrar menos
+### Horario de apertura
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+Enlaces de interés:
+  * Tintes y lasures al agua para madera en Moratalaz, Madrid   * Barnices y protectores para madera en Moratalaz Madrid   * Tienda de pavimentos y azulejos en Moratalaz, Madrid   * Obras y reformas integrales en Moratalaz, Madrid
+  * Aviso legal Aviso legal   * - Política de privacidad Política de privacidad   * - Política de cookies Política de cookies   * - Declaración accesibilidad Declaración accesibilidad   * - Política de envío y devoluciones Política de envío y devoluciones
+Share by:
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>ACEITE VASELINA 375 ML</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://www.hogaryhobby.com/tienda/ACEITE-VASELINA-375-ML-p674408222</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://d2j6dbq0eux0bg.cloudfront.net/images/103344402/4402863904.jpg</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>ACEITE VASELINA 375 ML</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5,24€</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Síguenos
+  *   *   *   *   *   *   *   *   *   *   *
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+LLÁMANOS
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+0
+0
+# ACEITE VASELINA 375 ML
+Tienda / Exterior y Jardín / Aceites
+€ 5,24
+Precio incluido IVA (19%) € 0,84
+Disponible
+Añadir más
+Añadir a la cesta
+Ir al pago
+Comparte este producto con sus amigos
+Compartir Compartir Fíjelo
+ACEITE VASELINA 375 ML
+Tienda / Exterior y Jardín / Aceites
+  * Mi cuenta   * Seguimiento de pedidos   * Cesta
+Mostrar precios en: EUR
+## ¿Necesitas más información?
+TE LLAMAMOS NOSOTROS
+Avenida de Moratalaz 141
+28030, Madrid
+hogaryhobby@gmail.com
+hogaryhobby@gmail.com
+914393334 \- 914399141 - 629224604
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+##### Síguenos
+  *   *   *   *   *   *   *   *   *   *   * 
+Mostrar más Mostrar menos
+### Horario de apertura
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+Enlaces de interés:
+  * Tintes y lasures al agua para madera en Moratalaz, Madrid   * Barnices y protectores para madera en Moratalaz Madrid   * Tienda de pavimentos y azulejos en Moratalaz, Madrid   * Obras y reformas integrales en Moratalaz, Madrid
+  * Aviso legal Aviso legal   * - Política de privacidad Política de privacidad   * - Política de cookies Política de cookies   * - Declaración accesibilidad Declaración accesibilidad   * - Política de envío y devoluciones Política de envío y devoluciones
+Share by:
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>ALUMINIO ROLLO 2,2KG GRUESO</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://www.hogaryhobby.com/tienda/ALUMINIO-ROLLO-2-2KG-GRUESO-p674407993</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://d2j6dbq0eux0bg.cloudfront.net/images/103344402/4402878076.jpg</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>ALUMINIO ROLLO 2,2KG GRUESO</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>30,55€</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Síguenos
+  *   *   *   *   *   *   *   *   *   *   *
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+LLÁMANOS
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+0
+0
+# ALUMINIO ROLLO 2,2KG GRUESO
+Tienda / Accesorios
+€ 30,55
+Precio incluido IVA (19%) € 4,88
+Disponible
+Añadir más
+Añadir a la cesta
+Ir al pago
+Comparte este producto con sus amigos
+Compartir Compartir Fíjelo
+ALUMINIO ROLLO 2,2KG GRUESO
+Tienda / Accesorios
+  * Mi cuenta   * Seguimiento de pedidos   * Cesta
+Mostrar precios en: EUR
+## ¿Necesitas más información?
+TE LLAMAMOS NOSOTROS
+Avenida de Moratalaz 141
+28030, Madrid
+hogaryhobby@gmail.com
+hogaryhobby@gmail.com
+914393334 \- 914399141 - 629224604
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+##### Síguenos
+  *   *   *   *   *   *   *   *   *   *   * 
+Mostrar más Mostrar menos
+### Horario de apertura
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+Enlaces de interés:
+  * Tintes y lasures al agua para madera en Moratalaz, Madrid   * Barnices y protectores para madera en Moratalaz Madrid   * Tienda de pavimentos y azulejos en Moratalaz, Madrid   * Obras y reformas integrales en Moratalaz, Madrid
+  * Aviso legal Aviso legal   * - Política de privacidad Política de privacidad   * - Política de cookies Política de cookies   * - Declaración accesibilidad Declaración accesibilidad   * - Política de envío y devoluciones Política de envío y devoluciones
+Share by:
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>LASUR AL AGUA WENGUÉ 4 L</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://www.hogaryhobby.com/tienda/LASUR-AL-AGUA-WENGUE-4-L-p672995290</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://d2j6dbq0eux0bg.cloudfront.net/images/103344402/4390430158.png</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>LASUR AL AGUA WENGUÉ 4 L</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>35,68€</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Síguenos
+  *   *   *   *   *   *   *   *   *   *   *
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+LLÁMANOS
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+0
+0
+# LASUR AL AGUA WENGUÉ 4 L
+Tienda / Exterior y Jardín / Lasur al agua
+€ 35,68
+Precio incluido IVA (19%) € 5,70
+Disponible
+Añadir más
+Añadir a la cesta
+Ir al pago
+Comparte este producto con sus amigos
+Compartir Compartir Fíjelo
+LASUR AL AGUA WENGUÉ 4 L
+Tienda / Exterior y Jardín / Lasur al agua
+  * Mi cuenta   * Seguimiento de pedidos   * Cesta
+Mostrar precios en: EUR
+## ¿Necesitas más información?
+TE LLAMAMOS NOSOTROS
+Avenida de Moratalaz 141
+28030, Madrid
+hogaryhobby@gmail.com
+hogaryhobby@gmail.com
+914393334 \- 914399141 - 629224604
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+##### Síguenos
+  *   *   *   *   *   *   *   *   *   *   * 
+Mostrar más Mostrar menos
+### Horario de apertura
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+Enlaces de interés:
+  * Tintes y lasures al agua para madera en Moratalaz, Madrid   * Barnices y protectores para madera en Moratalaz Madrid   * Tienda de pavimentos y azulejos en Moratalaz, Madrid   * Obras y reformas integrales en Moratalaz, Madrid
+  * Aviso legal Aviso legal   * - Política de privacidad Política de privacidad   * - Política de cookies Política de cookies   * - Declaración accesibilidad Declaración accesibilidad   * - Política de envío y devoluciones Política de envío y devoluciones
+Share by:
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>BARNIZ TINTE SATINADO WENGUÉ 375 ML</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://www.hogaryhobby.com/tienda/BARNIZ-TINTE-SATINADO-WENGUE-375-ML-p674408232</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://d2j6dbq0eux0bg.cloudfront.net/images/103344402/4402943206.jpg</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>BARNIZ TINTE SATINADO WENGUÉ 375 ML</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5,90€</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Síguenos
+  *   *   *   *   *   *   *   *   *   *   *
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+LLÁMANOS
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+0
+0
+# BARNIZ TINTE SATINADO WENGUÉ 375 ML
+Tienda / Baniz de interior
+€ 5,90
+Precio incluido IVA (19%) € 0,94
+Disponible
+Añadir más
+Añadir a la cesta
+Ir al pago
+Comparte este producto con sus amigos
+Compartir Compartir Fíjelo
+BARNIZ TINTE SATINADO WENGUÉ 375 ML
+Tienda / Baniz de interior
+  * Mi cuenta   * Seguimiento de pedidos   * Cesta
+Mostrar precios en: EUR
+## ¿Necesitas más información?
+TE LLAMAMOS NOSOTROS
+Avenida de Moratalaz 141
+28030, Madrid
+hogaryhobby@gmail.com
+hogaryhobby@gmail.com
+914393334 \- 914399141 - 629224604
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+##### Síguenos
+  *   *   *   *   *   *   *   *   *   *   * 
+Mostrar más Mostrar menos
+### Horario de apertura
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+Enlaces de interés:
+  * Tintes y lasures al agua para madera en Moratalaz, Madrid   * Barnices y protectores para madera en Moratalaz Madrid   * Tienda de pavimentos y azulejos en Moratalaz, Madrid   * Obras y reformas integrales en Moratalaz, Madrid
+  * Aviso legal Aviso legal   * - Política de privacidad Política de privacidad   * - Política de cookies Política de cookies   * - Declaración accesibilidad Declaración accesibilidad   * - Política de envío y devoluciones Política de envío y devoluciones
+Share by:
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>BARNIZ TINTE SATINADO SAPELI 750 ML</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://www.hogaryhobby.com/tienda/BARNIZ-TINTE-SATINADO-SAPELI-750-ML-p674408000</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://d2j6dbq0eux0bg.cloudfront.net/images/103344402/4402944093.jpg</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>BARNIZ TINTE SATINADO SAPELI 750 ML</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>9,47€</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Síguenos
+  *   *   *   *   *   *   *   *   *   *   *
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+LLÁMANOS
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+0
+0
+# BARNIZ TINTE SATINADO SAPELI 750 ML
+Tienda / Baniz de interior
+€ 9,47
+Precio incluido IVA (19%) € 1,51
+Disponible
+Añadir más
+Añadir a la cesta
+Ir al pago
+Comparte este producto con sus amigos
+Compartir Compartir Fíjelo
+BARNIZ TINTE SATINADO SAPELI 750 ML
+Tienda / Baniz de interior
+  * Mi cuenta   * Seguimiento de pedidos   * Cesta
+Mostrar precios en: EUR
+## ¿Necesitas más información?
+TE LLAMAMOS NOSOTROS
+Avenida de Moratalaz 141
+28030, Madrid
+hogaryhobby@gmail.com
+hogaryhobby@gmail.com
+914393334 \- 914399141 - 629224604
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+##### Síguenos
+  *   *   *   *   *   *   *   *   *   *   * 
+Mostrar más Mostrar menos
+### Horario de apertura
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+Enlaces de interés:
+  * Tintes y lasures al agua para madera en Moratalaz, Madrid   * Barnices y protectores para madera en Moratalaz Madrid   * Tienda de pavimentos y azulejos en Moratalaz, Madrid   * Obras y reformas integrales en Moratalaz, Madrid
+  * Aviso legal Aviso legal   * - Política de privacidad Política de privacidad   * - Política de cookies Política de cookies   * - Declaración accesibilidad Declaración accesibilidad   * - Política de envío y devoluciones Política de envío y devoluciones
+Share by:
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>ACEITE VASELINA 5 L</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://www.hogaryhobby.com/tienda/ACEITE-VASELINA-5-L-p674409724</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://d2j6dbq0eux0bg.cloudfront.net/images/103344402/4402864929.jpg</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>ACEITE VASELINA 5 L</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>44,91€</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Síguenos
+  *   *   *   *   *   *   *   *   *   *   *
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+LLÁMANOS
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+0
+0
+# ACEITE VASELINA 5 L
+Tienda / Exterior y Jardín / Aceites
+€ 44,91
+Precio incluido IVA (19%) € 7,17
+Disponible
+Añadir más
+Añadir a la cesta
+Ir al pago
+Comparte este producto con sus amigos
+Compartir Compartir Fíjelo
+ACEITE VASELINA 5 L
+Tienda / Exterior y Jardín / Aceites
+  * Mi cuenta   * Seguimiento de pedidos   * Cesta
+Mostrar precios en: EUR
+## ¿Necesitas más información?
+TE LLAMAMOS NOSOTROS
+Avenida de Moratalaz 141
+28030, Madrid
+hogaryhobby@gmail.com
+hogaryhobby@gmail.com
+914393334 \- 914399141 - 629224604
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+##### Síguenos
+  *   *   *   *   *   *   *   *   *   *   * 
+Mostrar más Mostrar menos
+### Horario de apertura
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+Enlaces de interés:
+  * Tintes y lasures al agua para madera en Moratalaz, Madrid   * Barnices y protectores para madera en Moratalaz Madrid   * Tienda de pavimentos y azulejos en Moratalaz, Madrid   * Obras y reformas integrales en Moratalaz, Madrid
+  * Aviso legal Aviso legal   * - Política de privacidad Política de privacidad   * - Política de cookies Política de cookies   * - Declaración accesibilidad Declaración accesibilidad   * - Política de envío y devoluciones Política de envío y devoluciones
+Share by:
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>BARNIZ TINTE SATINADO ROBLE 375 ML</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://www.hogaryhobby.com/tienda/BARNIZ-TINTE-SATINADO-ROBLE-375-ML-p674407999</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://d2j6dbq0eux0bg.cloudfront.net/images/103344402/4402943143.jpg</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>BARNIZ TINTE SATINADO ROBLE 375 ML</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5,91€</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Síguenos
+  *   *   *   *   *   *   *   *   *   *   *
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+LLÁMANOS
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+0
+0
+# BARNIZ TINTE SATINADO ROBLE 375 ML
+Tienda / Baniz de interior
+€ 5,91
+Precio incluido IVA (19%) € 0,94
+Disponible
+Añadir más
+Añadir a la cesta
+Ir al pago
+Comparte este producto con sus amigos
+Compartir Compartir Fíjelo
+BARNIZ TINTE SATINADO ROBLE 375 ML
+Tienda / Baniz de interior
+  * Mi cuenta   * Seguimiento de pedidos   * Cesta
+Mostrar precios en: EUR
+## ¿Necesitas más información?
+TE LLAMAMOS NOSOTROS
+Avenida de Moratalaz 141
+28030, Madrid
+hogaryhobby@gmail.com
+hogaryhobby@gmail.com
+914393334 \- 914399141 - 629224604
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+##### Síguenos
+  *   *   *   *   *   *   *   *   *   *   * 
+Mostrar más Mostrar menos
+### Horario de apertura
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+Enlaces de interés:
+  * Tintes y lasures al agua para madera en Moratalaz, Madrid   * Barnices y protectores para madera en Moratalaz Madrid   * Tienda de pavimentos y azulejos en Moratalaz, Madrid   * Obras y reformas integrales en Moratalaz, Madrid
+  * Aviso legal Aviso legal   * - Política de privacidad Política de privacidad   * - Política de cookies Política de cookies   * - Declaración accesibilidad Declaración accesibilidad   * - Política de envío y devoluciones Política de envío y devoluciones
+Share by:
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>LASUR AL AGUA TEKA 4 L</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://www.hogaryhobby.com/tienda/LASUR-AL-AGUA-TEKA-4-L-p672995312</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://d2j6dbq0eux0bg.cloudfront.net/images/103344402/4390438483.jpg</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>LASUR AL AGUA TEKA 4 L</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>35,68€</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Síguenos
+  *   *   *   *   *   *   *   *   *   *   *
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+LLÁMANOS
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+0
+0
+# LASUR AL AGUA TEKA 4 L
+Tienda / Exterior y Jardín / Lasur al agua
+€ 35,68
+Precio incluido IVA (19%) € 5,70
+Disponible
+Añadir más
+Añadir a la cesta
+Ir al pago
+Comparte este producto con sus amigos
+Compartir Compartir Fíjelo
+LASUR AL AGUA TEKA 4 L
+Tienda / Exterior y Jardín / Lasur al agua
+  * Mi cuenta   * Seguimiento de pedidos   * Cesta
+Mostrar precios en: EUR
+## ¿Necesitas más información?
+TE LLAMAMOS NOSOTROS
+Avenida de Moratalaz 141
+28030, Madrid
+hogaryhobby@gmail.com
+hogaryhobby@gmail.com
+914393334 \- 914399141 - 629224604
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+##### Síguenos
+  *   *   *   *   *   *   *   *   *   *   * 
+Mostrar más Mostrar menos
+### Horario de apertura
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+Enlaces de interés:
+  * Tintes y lasures al agua para madera en Moratalaz, Madrid   * Barnices y protectores para madera en Moratalaz Madrid   * Tienda de pavimentos y azulejos en Moratalaz, Madrid   * Obras y reformas integrales en Moratalaz, Madrid
+  * Aviso legal Aviso legal   * - Política de privacidad Política de privacidad   * - Política de cookies Política de cookies   * - Declaración accesibilidad Declaración accesibilidad   * - Política de envío y devoluciones Política de envío y devoluciones
+Share by:
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>BARNIZ TINTE SATINADO NOGAL 375 ML</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://www.hogaryhobby.com/tienda/BARNIZ-TINTE-SATINADO-NOGAL-375-ML-p674408227</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://d2j6dbq0eux0bg.cloudfront.net/images/103344402/4402939437.jpg</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>BARNIZ TINTE SATINADO NOGAL 375 ML</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5,91€</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Síguenos
+  *   *   *   *   *   *   *   *   *   *   *
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+LLÁMANOS
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+0
+0
+# BARNIZ TINTE SATINADO NOGAL 375 ML
+Tienda / Baniz de interior
+€ 5,91
+Precio incluido IVA (19%) € 0,94
+Disponible
+Añadir más
+Añadir a la cesta
+Ir al pago
+Comparte este producto con sus amigos
+Compartir Compartir Fíjelo
+BARNIZ TINTE SATINADO NOGAL 375 ML
+Tienda / Baniz de interior
+  * Mi cuenta   * Seguimiento de pedidos   * Cesta
+Mostrar precios en: EUR
+## ¿Necesitas más información?
+TE LLAMAMOS NOSOTROS
+Avenida de Moratalaz 141
+28030, Madrid
+hogaryhobby@gmail.com
+hogaryhobby@gmail.com
+914393334 \- 914399141 - 629224604
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+##### Síguenos
+  *   *   *   *   *   *   *   *   *   *   * 
+Mostrar más Mostrar menos
+### Horario de apertura
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+Enlaces de interés:
+  * Tintes y lasures al agua para madera en Moratalaz, Madrid   * Barnices y protectores para madera en Moratalaz Madrid   * Tienda de pavimentos y azulejos en Moratalaz, Madrid   * Obras y reformas integrales en Moratalaz, Madrid
+  * Aviso legal Aviso legal   * - Política de privacidad Política de privacidad   * - Política de cookies Política de cookies   * - Declaración accesibilidad Declaración accesibilidad   * - Política de envío y devoluciones Política de envío y devoluciones
+Share by:
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>LANA DE ACERO FINO 140 grs</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://www.hogaryhobby.com/tienda/LANA-DE-ACERO-FINO-140-grs-p674407994</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://d2j6dbq0eux0bg.cloudfront.net/images/103344402/4402870067.jpg</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>LANA DE ACERO FINO 140 grs</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3,70€</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Síguenos
+  *   *   *   *   *   *   *   *   *   *   *
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+LLÁMANOS
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+0
+0
+# LANA DE ACERO FINO 140 grs
+Tienda / Accesorios
+€ 3,70
+Precio incluido IVA (19%) € 0,59
+Disponible
+Añadir más
+Añadir a la cesta
+Ir al pago
+Comparte este producto con sus amigos
+Compartir Compartir Fíjelo
+LANA DE ACERO FINO 140 grs
+Tienda / Accesorios
+  * Mi cuenta   * Seguimiento de pedidos   * Cesta
+Mostrar precios en: EUR
+## ¿Necesitas más información?
+TE LLAMAMOS NOSOTROS
+Avenida de Moratalaz 141
+28030, Madrid
+hogaryhobby@gmail.com
+hogaryhobby@gmail.com
+914393334 \- 914399141 - 629224604
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+##### Síguenos
+  *   *   *   *   *   *   *   *   *   *   * 
+Mostrar más Mostrar menos
+### Horario de apertura
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+Enlaces de interés:
+  * Tintes y lasures al agua para madera en Moratalaz, Madrid   * Barnices y protectores para madera en Moratalaz Madrid   * Tienda de pavimentos y azulejos en Moratalaz, Madrid   * Obras y reformas integrales en Moratalaz, Madrid
+  * Aviso legal Aviso legal   * - Política de privacidad Política de privacidad   * - Política de cookies Política de cookies   * - Declaración accesibilidad Declaración accesibilidad   * - Política de envío y devoluciones Política de envío y devoluciones
+Share by:
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>LANA DE ACERO 2,2KG SEMI</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://www.hogaryhobby.com/tienda/LANA-DE-ACERO-2-2KG-SEMI-p674407991</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://d2j6dbq0eux0bg.cloudfront.net/images/103344402/4402870037.jpg</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>LANA DE ACERO 2,2KG SEMI</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>26,62€</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Síguenos
+  *   *   *   *   *   *   *   *   *   *   *
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+LLÁMANOS
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+0
+0
+# LANA DE ACERO 2,2KG SEMI
+Tienda / Accesorios
+€ 26,62
+Precio incluido IVA (19%) € 4,25
+Disponible
+Añadir más
+Añadir a la cesta
+Ir al pago
+Comparte este producto con sus amigos
+Compartir Compartir Fíjelo
+LANA DE ACERO 2,2KG SEMI
+Tienda / Accesorios
+  * Mi cuenta   * Seguimiento de pedidos   * Cesta
+Mostrar precios en: EUR
+## ¿Necesitas más información?
+TE LLAMAMOS NOSOTROS
+Avenida de Moratalaz 141
+28030, Madrid
+hogaryhobby@gmail.com
+hogaryhobby@gmail.com
+914393334 \- 914399141 - 629224604
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+##### Síguenos
+  *   *   *   *   *   *   *   *   *   *   * 
+Mostrar más Mostrar menos
+### Horario de apertura
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+Enlaces de interés:
+  * Tintes y lasures al agua para madera en Moratalaz, Madrid   * Barnices y protectores para madera en Moratalaz Madrid   * Tienda de pavimentos y azulejos en Moratalaz, Madrid   * Obras y reformas integrales en Moratalaz, Madrid
+  * Aviso legal Aviso legal   * - Política de privacidad Política de privacidad   * - Política de cookies Política de cookies   * - Declaración accesibilidad Declaración accesibilidad   * - Política de envío y devoluciones Política de envío y devoluciones
+Share by:
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>BARNIZ TINTE SATINADO SAPELI 375 ML</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://www.hogaryhobby.com/tienda/BARNIZ-TINTE-SATINADO-SAPELI-375-ML-p674409727</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://d2j6dbq0eux0bg.cloudfront.net/images/103344402/4402943171.jpg</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>BARNIZ TINTE SATINADO SAPELI 375 ML</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5,91€</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Síguenos
+  *   *   *   *   *   *   *   *   *   *   *
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+LLÁMANOS
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+0
+0
+# BARNIZ TINTE SATINADO SAPELI 375 ML
+Tienda / Baniz de interior
+€ 5,91
+Precio incluido IVA (19%) € 0,94
+Disponible
+Añadir más
+Añadir a la cesta
+Ir al pago
+Comparte este producto con sus amigos
+Compartir Compartir Fíjelo
+BARNIZ TINTE SATINADO SAPELI 375 ML
+Tienda / Baniz de interior
+  * Mi cuenta   * Seguimiento de pedidos   * Cesta
+Mostrar precios en: EUR
+## ¿Necesitas más información?
+TE LLAMAMOS NOSOTROS
+Avenida de Moratalaz 141
+28030, Madrid
+hogaryhobby@gmail.com
+hogaryhobby@gmail.com
+914393334 \- 914399141 - 629224604
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+##### Síguenos
+  *   *   *   *   *   *   *   *   *   *   * 
+Mostrar más Mostrar menos
+### Horario de apertura
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+Enlaces de interés:
+  * Tintes y lasures al agua para madera en Moratalaz, Madrid   * Barnices y protectores para madera en Moratalaz Madrid   * Tienda de pavimentos y azulejos en Moratalaz, Madrid   * Obras y reformas integrales en Moratalaz, Madrid
+  * Aviso legal Aviso legal   * - Política de privacidad Política de privacidad   * - Política de cookies Política de cookies   * - Declaración accesibilidad Declaración accesibilidad   * - Política de envío y devoluciones Política de envío y devoluciones
+Share by:
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>LASUR AL AGUA CAOBA 750 ML</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://www.hogaryhobby.com/tienda/LASUR-AL-AGUA-CAOBA-750-ML-p672951451</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://d2j6dbq0eux0bg.cloudfront.net/images/103344402/4390438432.jpg</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>LASUR AL AGUA CAOBA 750 ML</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>8,25€</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Síguenos
+  *   *   *   *   *   *   *   *   *   *   *
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+LLÁMANOS
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+0
+0
+# LASUR AL AGUA CAOBA 750 ML
+Tienda / Exterior y Jardín / Lasur al agua
+€ 8,25
+Precio incluido IVA (19%) € 1,32
+Disponible
+Añadir más
+Añadir a la cesta
+Ir al pago
+Comparte este producto con sus amigos
+Compartir Compartir Fíjelo
+LASUR AL AGUA CAOBA 750 ML
+Tienda / Exterior y Jardín / Lasur al agua
+  * Mi cuenta   * Seguimiento de pedidos   * Cesta
+Mostrar precios en: EUR
+## ¿Necesitas más información?
+TE LLAMAMOS NOSOTROS
+Avenida de Moratalaz 141
+28030, Madrid
+hogaryhobby@gmail.com
+hogaryhobby@gmail.com
+914393334 \- 914399141 - 629224604
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+##### Síguenos
+  *   *   *   *   *   *   *   *   *   *   * 
+Mostrar más Mostrar menos
+### Horario de apertura
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+Enlaces de interés:
+  * Tintes y lasures al agua para madera en Moratalaz, Madrid   * Barnices y protectores para madera en Moratalaz Madrid   * Tienda de pavimentos y azulejos en Moratalaz, Madrid   * Obras y reformas integrales en Moratalaz, Madrid
+  * Aviso legal Aviso legal   * - Política de privacidad Política de privacidad   * - Política de cookies Política de cookies   * - Declaración accesibilidad Declaración accesibilidad   * - Política de envío y devoluciones Política de envío y devoluciones
+Share by:
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>LASUR AL AGUA INCOLORO 4 L</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://www.hogaryhobby.com/tienda/LASUR-AL-AGUA-INCOLORO-4-L-p672995257</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://d2j6dbq0eux0bg.cloudfront.net/images/103344402/4390428877.jpg</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>LASUR AL AGUA INCOLORO 4 L</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>35,68€</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Síguenos
+  *   *   *   *   *   *   *   *   *   *   *
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+LLÁMANOS
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+0
+0
+# LASUR AL AGUA INCOLORO 4 L
+Tienda / Exterior y Jardín / Lasur al agua
+€ 35,68
+Precio incluido IVA (19%) € 5,70
+Disponible
+Añadir más
+Añadir a la cesta
+Ir al pago
+Comparte este producto con sus amigos
+Compartir Compartir Fíjelo
+LASUR AL AGUA INCOLORO 4 L
+Tienda / Exterior y Jardín / Lasur al agua
+  * Mi cuenta   * Seguimiento de pedidos   * Cesta
+Mostrar precios en: EUR
+## ¿Necesitas más información?
+TE LLAMAMOS NOSOTROS
+Avenida de Moratalaz 141
+28030, Madrid
+hogaryhobby@gmail.com
+hogaryhobby@gmail.com
+914393334 \- 914399141 - 629224604
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+##### Síguenos
+  *   *   *   *   *   *   *   *   *   *   * 
+Mostrar más Mostrar menos
+### Horario de apertura
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+Enlaces de interés:
+  * Tintes y lasures al agua para madera en Moratalaz, Madrid   * Barnices y protectores para madera en Moratalaz Madrid   * Tienda de pavimentos y azulejos en Moratalaz, Madrid   * Obras y reformas integrales en Moratalaz, Madrid
+  * Aviso legal Aviso legal   * - Política de privacidad Política de privacidad   * - Política de cookies Política de cookies   * - Declaración accesibilidad Declaración accesibilidad   * - Política de envío y devoluciones Política de envío y devoluciones
+Share by:
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>BARNIZ TINTE SATINADO CEREZO 750 ML</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://www.hogaryhobby.com/tienda/BARNIZ-TINTE-SATINADO-CEREZO-750-ML-p674408230</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://d2j6dbq0eux0bg.cloudfront.net/images/103344402/4402938676.jpg</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>BARNIZ TINTE SATINADO CEREZO 750 ML</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>9,47€</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Síguenos
+  *   *   *   *   *   *   *   *   *   *   *
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+LLÁMANOS
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+0
+0
+# BARNIZ TINTE SATINADO CEREZO 750 ML
+Tienda / Baniz de interior
+€ 9,47
+Precio incluido IVA (19%) € 1,51
+Disponible
+Añadir más
+Añadir a la cesta
+Ir al pago
+Comparte este producto con sus amigos
+Compartir Compartir Fíjelo
+BARNIZ TINTE SATINADO CEREZO 750 ML
+Tienda / Baniz de interior
+  * Mi cuenta   * Seguimiento de pedidos   * Cesta
+Mostrar precios en: EUR
+## ¿Necesitas más información?
+TE LLAMAMOS NOSOTROS
+Avenida de Moratalaz 141
+28030, Madrid
+hogaryhobby@gmail.com
+hogaryhobby@gmail.com
+914393334 \- 914399141 - 629224604
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+##### Síguenos
+  *   *   *   *   *   *   *   *   *   *   * 
+Mostrar más Mostrar menos
+### Horario de apertura
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+Enlaces de interés:
+  * Tintes y lasures al agua para madera en Moratalaz, Madrid   * Barnices y protectores para madera en Moratalaz Madrid   * Tienda de pavimentos y azulejos en Moratalaz, Madrid   * Obras y reformas integrales en Moratalaz, Madrid
+  * Aviso legal Aviso legal   * - Política de privacidad Política de privacidad   * - Política de cookies Política de cookies   * - Declaración accesibilidad Declaración accesibilidad   * - Política de envío y devoluciones Política de envío y devoluciones
+Share by:
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>LANA ACERO 1 KG FINO</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://www.hogaryhobby.com/tienda/LANA-ACERO-1-KG-FINO-p674409893</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://d2j6dbq0eux0bg.cloudfront.net/images/103344402/4402869503.jpg</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>LANA ACERO 1 KG FINO</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>14,20€</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Síguenos
+  *   *   *   *   *   *   *   *   *   *   *
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+LLÁMANOS
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+0
+0
+# LANA ACERO 1 KG FINO
+Tienda / Accesorios
+€ 14,20
+Precio incluido IVA (19%) € 2,27
+Disponible
+Añadir más
+Añadir a la cesta
+Ir al pago
+Comparte este producto con sus amigos
+Compartir Compartir Fíjelo
+LANA ACERO 1 KG FINO
+Tienda / Accesorios
+  * Mi cuenta   * Seguimiento de pedidos   * Cesta
+Mostrar precios en: EUR
+## ¿Necesitas más información?
+TE LLAMAMOS NOSOTROS
+Avenida de Moratalaz 141
+28030, Madrid
+hogaryhobby@gmail.com
+hogaryhobby@gmail.com
+914393334 \- 914399141 - 629224604
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+##### Síguenos
+  *   *   *   *   *   *   *   *   *   *   * 
+Mostrar más Mostrar menos
+### Horario de apertura
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+Enlaces de interés:
+  * Tintes y lasures al agua para madera en Moratalaz, Madrid   * Barnices y protectores para madera en Moratalaz Madrid   * Tienda de pavimentos y azulejos en Moratalaz, Madrid   * Obras y reformas integrales en Moratalaz, Madrid
+  * Aviso legal Aviso legal   * - Política de privacidad Política de privacidad   * - Política de cookies Política de cookies   * - Declaración accesibilidad Declaración accesibilidad   * - Política de envío y devoluciones Política de envío y devoluciones
+Share by:
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>CERA PARA MUEBLES TRANSPARENTE 4 L</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://www.hogaryhobby.com/tienda/CERA-PARA-MUEBLES-TRANSPARENTE-4-L-p674409890</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Imagen no disponible</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>CERA PARA MUEBLES TRANSPARENTE 4 L</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>38,03€</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Síguenos
+  *   *   *   *   *   *   *   *   *   *   *
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+LLÁMANOS
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+0
+0
+# CERA PARA MUEBLES TRANSPARENTE 4 L
+Tienda / Ceras / Cera para muebles
+€ 38,03
+Precio incluido IVA (19%) € 6,07
+Disponible
+Añadir más
+Añadir a la cesta
+Ir al pago
+Comparte este producto con sus amigos
+Compartir Compartir Fíjelo
+CERA PARA MUEBLES TRANSPARENTE 4 L
+Tienda / Ceras / Cera para muebles
+  * Mi cuenta   * Seguimiento de pedidos   * Cesta
+Mostrar precios en: EUR
+## ¿Necesitas más información?
+TE LLAMAMOS NOSOTROS
+Avenida de Moratalaz 141
+28030, Madrid
+hogaryhobby@gmail.com
+hogaryhobby@gmail.com
+914393334 \- 914399141 - 629224604
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+##### Síguenos
+  *   *   *   *   *   *   *   *   *   *   * 
+Mostrar más Mostrar menos
+### Horario de apertura
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+Enlaces de interés:
+  * Tintes y lasures al agua para madera en Moratalaz, Madrid   * Barnices y protectores para madera en Moratalaz Madrid   * Tienda de pavimentos y azulejos en Moratalaz, Madrid   * Obras y reformas integrales en Moratalaz, Madrid
+  * Aviso legal Aviso legal   * - Política de privacidad Política de privacidad   * - Política de cookies Política de cookies   * - Declaración accesibilidad Declaración accesibilidad   * - Política de envío y devoluciones Política de envío y devoluciones
+Share by:
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>LASUR AL AGUA CAOBA 4 L</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://www.hogaryhobby.com/tienda/LASUR-AL-AGUA-CAOBA-4-L-p672995302</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://d2j6dbq0eux0bg.cloudfront.net/images/103344402/4390438432.jpg</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>LASUR AL AGUA CAOBA 4 L</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>35,68€</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Síguenos
+  *   *   *   *   *   *   *   *   *   *   *
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+LLÁMANOS
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+0
+0
+# LASUR AL AGUA CAOBA 4 L
+Tienda / Exterior y Jardín / Lasur al agua
+€ 35,68
+Precio incluido IVA (19%) € 5,70
+Disponible
+Añadir más
+Añadir a la cesta
+Ir al pago
+Comparte este producto con sus amigos
+Compartir Compartir Fíjelo
+LASUR AL AGUA CAOBA 4 L
+Tienda / Exterior y Jardín / Lasur al agua
+  * Mi cuenta   * Seguimiento de pedidos   * Cesta
+Mostrar precios en: EUR
+## ¿Necesitas más información?
+TE LLAMAMOS NOSOTROS
+Avenida de Moratalaz 141
+28030, Madrid
+hogaryhobby@gmail.com
+hogaryhobby@gmail.com
+914393334 \- 914399141 - 629224604
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+##### Síguenos
+  *   *   *   *   *   *   *   *   *   *   * 
+Mostrar más Mostrar menos
+### Horario de apertura
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+Enlaces de interés:
+  * Tintes y lasures al agua para madera en Moratalaz, Madrid   * Barnices y protectores para madera en Moratalaz Madrid   * Tienda de pavimentos y azulejos en Moratalaz, Madrid   * Obras y reformas integrales en Moratalaz, Madrid
+  * Aviso legal Aviso legal   * - Política de privacidad Política de privacidad   * - Política de cookies Política de cookies   * - Declaración accesibilidad Declaración accesibilidad   * - Política de envío y devoluciones Política de envío y devoluciones
+Share by:
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>ACEITE VASELINA 750 ML</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://www.hogaryhobby.com/tienda/ACEITE-VASELINA-750-ML-p674409723</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://d2j6dbq0eux0bg.cloudfront.net/images/103344402/4402863993.jpg</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ACEITE VASELINA 750 ML</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>9,02€</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Síguenos
+  *   *   *   *   *   *   *   *   *   *   *
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+LLÁMANOS
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+0
+0
+# ACEITE VASELINA 750 ML
+Tienda / Exterior y Jardín / Aceites
+€ 9,02
+Precio incluido IVA (19%) € 1,44
+Disponible
+Añadir más
+Añadir a la cesta
+Ir al pago
+Comparte este producto con sus amigos
+Compartir Compartir Fíjelo
+ACEITE VASELINA 750 ML
+Tienda / Exterior y Jardín / Aceites
+  * Mi cuenta   * Seguimiento de pedidos   * Cesta
+Mostrar precios en: EUR
+## ¿Necesitas más información?
+TE LLAMAMOS NOSOTROS
+Avenida de Moratalaz 141
+28030, Madrid
+hogaryhobby@gmail.com
+hogaryhobby@gmail.com
+914393334 \- 914399141 - 629224604
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+##### Síguenos
+  *   *   *   *   *   *   *   *   *   *   * 
+Mostrar más Mostrar menos
+### Horario de apertura
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+Enlaces de interés:
+  * Tintes y lasures al agua para madera en Moratalaz, Madrid   * Barnices y protectores para madera en Moratalaz Madrid   * Tienda de pavimentos y azulejos en Moratalaz, Madrid   * Obras y reformas integrales en Moratalaz, Madrid
+  * Aviso legal Aviso legal   * - Política de privacidad Política de privacidad   * - Política de cookies Política de cookies   * - Declaración accesibilidad Declaración accesibilidad   * - Política de envío y devoluciones Política de envío y devoluciones
+Share by:
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>LANA DE ACERO GRUESO 140 grs</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://www.hogaryhobby.com/tienda/LANA-DE-ACERO-GRUESO-140-grs-p674407996</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://d2j6dbq0eux0bg.cloudfront.net/images/103344402/4402869588.jpg</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>LANA DE ACERO GRUESO 140 grs</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3,70€</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Síguenos
+  *   *   *   *   *   *   *   *   *   *   *
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+LLÁMANOS
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+0
+0
+# LANA DE ACERO GRUESO 140 grs
+Tienda / Accesorios
+€ 3,70
+Precio incluido IVA (19%) € 0,59
+Disponible
+Añadir más
+Añadir a la cesta
+Ir al pago
+Comparte este producto con sus amigos
+Compartir Compartir Fíjelo
+LANA DE ACERO GRUESO 140 grs
+Tienda / Accesorios
+  * Mi cuenta   * Seguimiento de pedidos   * Cesta
+Mostrar precios en: EUR
+## ¿Necesitas más información?
+TE LLAMAMOS NOSOTROS
+Avenida de Moratalaz 141
+28030, Madrid
+hogaryhobby@gmail.com
+hogaryhobby@gmail.com
+914393334 \- 914399141 - 629224604
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+##### Síguenos
+  *   *   *   *   *   *   *   *   *   *   * 
+Mostrar más Mostrar menos
+### Horario de apertura
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+Enlaces de interés:
+  * Tintes y lasures al agua para madera en Moratalaz, Madrid   * Barnices y protectores para madera en Moratalaz Madrid   * Tienda de pavimentos y azulejos en Moratalaz, Madrid   * Obras y reformas integrales en Moratalaz, Madrid
+  * Aviso legal Aviso legal   * - Política de privacidad Política de privacidad   * - Política de cookies Política de cookies   * - Declaración accesibilidad Declaración accesibilidad   * - Política de envío y devoluciones Política de envío y devoluciones
+Share by:
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>LASUR AL AGUA TEKA 750 ML</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://www.hogaryhobby.com/tienda/LASUR-AL-AGUA-TEKA-750-ML-p672951455</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://d2j6dbq0eux0bg.cloudfront.net/images/103344402/4390438483.jpg</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>LASUR AL AGUA TEKA 750 ML</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>8,25€</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Síguenos
+  *   *   *   *   *   *   *   *   *   *   *
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+LLÁMANOS
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+0
+0
+# LASUR AL AGUA TEKA 750 ML
+Tienda / Exterior y Jardín / Lasur al agua
+€ 8,25
+Precio incluido IVA (19%) € 1,32
+Disponible
+Añadir más
+Añadir a la cesta
+Ir al pago
+Comparte este producto con sus amigos
+Compartir Compartir Fíjelo
+LASUR AL AGUA TEKA 750 ML
+Tienda / Exterior y Jardín / Lasur al agua
+  * Mi cuenta   * Seguimiento de pedidos   * Cesta
+Mostrar precios en: EUR
+## ¿Necesitas más información?
+TE LLAMAMOS NOSOTROS
+Avenida de Moratalaz 141
+28030, Madrid
+hogaryhobby@gmail.com
+hogaryhobby@gmail.com
+914393334 \- 914399141 - 629224604
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+##### Síguenos
+  *   *   *   *   *   *   *   *   *   *   * 
+Mostrar más Mostrar menos
+### Horario de apertura
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+Enlaces de interés:
+  * Tintes y lasures al agua para madera en Moratalaz, Madrid   * Barnices y protectores para madera en Moratalaz Madrid   * Tienda de pavimentos y azulejos en Moratalaz, Madrid   * Obras y reformas integrales en Moratalaz, Madrid
+  * Aviso legal Aviso legal   * - Política de privacidad Política de privacidad   * - Política de cookies Política de cookies   * - Declaración accesibilidad Declaración accesibilidad   * - Política de envío y devoluciones Política de envío y devoluciones
+Share by:
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>LANA ACERO 1 KG MEDIO</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://www.hogaryhobby.com/tienda/LANA-ACERO-1-KG-MEDIO-p674408224</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://d2j6dbq0eux0bg.cloudfront.net/images/103344402/4402866410.jpg</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>LANA ACERO 1 KG MEDIO</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>11,85€</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Síguenos
+  *   *   *   *   *   *   *   *   *   *   *
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+LLÁMANOS
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+0
+0
+# LANA ACERO 1 KG MEDIO
+Tienda / Accesorios
+€ 11,85
+Precio incluido IVA (19%) € 1,89
+Disponible
+Añadir más
+Añadir a la cesta
+Ir al pago
+Comparte este producto con sus amigos
+Compartir Compartir Fíjelo
+LANA ACERO 1 KG MEDIO
+Tienda / Accesorios
+  * Mi cuenta   * Seguimiento de pedidos   * Cesta
+Mostrar precios en: EUR
+## ¿Necesitas más información?
+TE LLAMAMOS NOSOTROS
+Avenida de Moratalaz 141
+28030, Madrid
+hogaryhobby@gmail.com
+hogaryhobby@gmail.com
+914393334 \- 914399141 - 629224604
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+##### Síguenos
+  *   *   *   *   *   *   *   *   *   *   * 
+Mostrar más Mostrar menos
+### Horario de apertura
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+Enlaces de interés:
+  * Tintes y lasures al agua para madera en Moratalaz, Madrid   * Barnices y protectores para madera en Moratalaz Madrid   * Tienda de pavimentos y azulejos en Moratalaz, Madrid   * Obras y reformas integrales en Moratalaz, Madrid
+  * Aviso legal Aviso legal   * - Política de privacidad Política de privacidad   * - Política de cookies Política de cookies   * - Declaración accesibilidad Declaración accesibilidad   * - Política de envío y devoluciones Política de envío y devoluciones
+Share by:
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>LANA DE ACERO 2,2KG FINO</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://www.hogaryhobby.com/tienda/LANA-DE-ACERO-2-2KG-FINO-p674407992</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://d2j6dbq0eux0bg.cloudfront.net/images/103344402/4402870027.jpg</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>LANA DE ACERO 2,2KG FINO</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>40,32€</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Síguenos
+  *   *   *   *   *   *   *   *   *   *   *
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+LLÁMANOS
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+0
+0
+# LANA DE ACERO 2,2KG FINO
+Tienda / Accesorios
+€ 40,32
+Precio incluido IVA (19%) € 6,44
+Disponible
+Añadir más
+Añadir a la cesta
+Ir al pago
+Comparte este producto con sus amigos
+Compartir Compartir Fíjelo
+LANA DE ACERO 2,2KG FINO
+Tienda / Accesorios
+  * Mi cuenta   * Seguimiento de pedidos   * Cesta
+Mostrar precios en: EUR
+## ¿Necesitas más información?
+TE LLAMAMOS NOSOTROS
+Avenida de Moratalaz 141
+28030, Madrid
+hogaryhobby@gmail.com
+hogaryhobby@gmail.com
+914393334 \- 914399141 - 629224604
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+##### Síguenos
+  *   *   *   *   *   *   *   *   *   *   * 
+Mostrar más Mostrar menos
+### Horario de apertura
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+Enlaces de interés:
+  * Tintes y lasures al agua para madera en Moratalaz, Madrid   * Barnices y protectores para madera en Moratalaz Madrid   * Tienda de pavimentos y azulejos en Moratalaz, Madrid   * Obras y reformas integrales en Moratalaz, Madrid
+  * Aviso legal Aviso legal   * - Política de privacidad Política de privacidad   * - Política de cookies Política de cookies   * - Declaración accesibilidad Declaración accesibilidad   * - Política de envío y devoluciones Política de envío y devoluciones
+Share by:
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>BARNIZ TINTE SATINADO ROBLE 750 ML</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://www.hogaryhobby.com/tienda/BARNIZ-TINTE-SATINADO-ROBLE-750-ML-p674409726</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://d2j6dbq0eux0bg.cloudfront.net/images/103344402/4402943155.jpg</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>BARNIZ TINTE SATINADO ROBLE 750 ML</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>9,47€</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Síguenos
+  *   *   *   *   *   *   *   *   *   *   *
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+LLÁMANOS
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+0
+0
+# BARNIZ TINTE SATINADO ROBLE 750 ML
+Tienda / Baniz de interior
+€ 9,47
+Precio incluido IVA (19%) € 1,51
+Disponible
+Añadir más
+Añadir a la cesta
+Ir al pago
+Comparte este producto con sus amigos
+Compartir Compartir Fíjelo
+BARNIZ TINTE SATINADO ROBLE 750 ML
+Tienda / Baniz de interior
+  * Mi cuenta   * Seguimiento de pedidos   * Cesta
+Mostrar precios en: EUR
+## ¿Necesitas más información?
+TE LLAMAMOS NOSOTROS
+Avenida de Moratalaz 141
+28030, Madrid
+hogaryhobby@gmail.com
+hogaryhobby@gmail.com
+914393334 \- 914399141 - 629224604
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+##### Síguenos
+  *   *   *   *   *   *   *   *   *   *   * 
+Mostrar más Mostrar menos
+### Horario de apertura
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+Enlaces de interés:
+  * Tintes y lasures al agua para madera en Moratalaz, Madrid   * Barnices y protectores para madera en Moratalaz Madrid   * Tienda de pavimentos y azulejos en Moratalaz, Madrid   * Obras y reformas integrales en Moratalaz, Madrid
+  * Aviso legal Aviso legal   * - Política de privacidad Política de privacidad   * - Política de cookies Política de cookies   * - Declaración accesibilidad Declaración accesibilidad   * - Política de envío y devoluciones Política de envío y devoluciones
+Share by:
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>LANA DE ACERO SEMI 140 grs</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://www.hogaryhobby.com/tienda/LANA-DE-ACERO-SEMI-140-grs-p674407995</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://d2j6dbq0eux0bg.cloudfront.net/images/103344402/4402872259.jpg</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>LANA DE ACERO SEMI 140 grs</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3,70€</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Síguenos
+  *   *   *   *   *   *   *   *   *   *   *
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+LLÁMANOS
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+0
+0
+# LANA DE ACERO SEMI 140 grs
+Tienda / Accesorios
+€ 3,70
+Precio incluido IVA (19%) € 0,59
+Disponible
+Añadir más
+Añadir a la cesta
+Ir al pago
+Comparte este producto con sus amigos
+Compartir Compartir Fíjelo
+LANA DE ACERO SEMI 140 grs
+Tienda / Accesorios
+  * Mi cuenta   * Seguimiento de pedidos   * Cesta
+Mostrar precios en: EUR
+## ¿Necesitas más información?
+TE LLAMAMOS NOSOTROS
+Avenida de Moratalaz 141
+28030, Madrid
+hogaryhobby@gmail.com
+hogaryhobby@gmail.com
+914393334 \- 914399141 - 629224604
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+##### Síguenos
+  *   *   *   *   *   *   *   *   *   *   * 
+Mostrar más Mostrar menos
+### Horario de apertura
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+Enlaces de interés:
+  * Tintes y lasures al agua para madera en Moratalaz, Madrid   * Barnices y protectores para madera en Moratalaz Madrid   * Tienda de pavimentos y azulejos en Moratalaz, Madrid   * Obras y reformas integrales en Moratalaz, Madrid
+  * Aviso legal Aviso legal   * - Política de privacidad Política de privacidad   * - Política de cookies Política de cookies   * - Declaración accesibilidad Declaración accesibilidad   * - Política de envío y devoluciones Política de envío y devoluciones
+Share by:
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>ACEITE TEKA INCOLORO 375 ML</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://www.hogaryhobby.com/tienda/ACEITE-TEKA-INCOLORO-375-ML-p674408225</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://d2j6dbq0eux0bg.cloudfront.net/images/103344402/4402863763.jpg</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>ACEITE TEKA INCOLORO 375 ML</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5,09€</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Síguenos
+  *   *   *   *   *   *   *   *   *   *   *
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+LLÁMANOS
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+0
+0
+# ACEITE TEKA INCOLORO 375 ML
+Tienda / Exterior y Jardín / Aceites
+€ 5,09
+Precio incluido IVA (19%) € 0,81
+Disponible
+Añadir más
+Añadir a la cesta
+Ir al pago
+Comparte este producto con sus amigos
+Compartir Compartir Fíjelo
+ACEITE TEKA INCOLORO 375 ML
+Tienda / Exterior y Jardín / Aceites
+  * Mi cuenta   * Seguimiento de pedidos   * Cesta
+Mostrar precios en: EUR
+## ¿Necesitas más información?
+TE LLAMAMOS NOSOTROS
+Avenida de Moratalaz 141
+28030, Madrid
+hogaryhobby@gmail.com
+hogaryhobby@gmail.com
+914393334 \- 914399141 - 629224604
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+##### Síguenos
+  *   *   *   *   *   *   *   *   *   *   * 
+Mostrar más Mostrar menos
+### Horario de apertura
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+Enlaces de interés:
+  * Tintes y lasures al agua para madera en Moratalaz, Madrid   * Barnices y protectores para madera en Moratalaz Madrid   * Tienda de pavimentos y azulejos en Moratalaz, Madrid   * Obras y reformas integrales en Moratalaz, Madrid
+  * Aviso legal Aviso legal   * - Política de privacidad Política de privacidad   * - Política de cookies Política de cookies   * - Declaración accesibilidad Declaración accesibilidad   * - Política de envío y devoluciones Política de envío y devoluciones
+Share by:
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>BARNIZ TINTE SATINADO AVELLANA 750 ML</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://www.hogaryhobby.com/tienda/BARNIZ-TINTE-SATINADO-AVELLANA-750-ML-p674408231</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://d2j6dbq0eux0bg.cloudfront.net/images/103344402/4402933199.jpg</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>BARNIZ TINTE SATINADO AVELLANA 750 ML</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>9,47€</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Síguenos
+  *   *   *   *   *   *   *   *   *   *   *
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+LLÁMANOS
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+0
+0
+# BARNIZ TINTE SATINADO AVELLANA 750 ML
+Tienda / Baniz de interior
+€ 9,47
+Precio incluido IVA (19%) € 1,51
+Disponible
+Añadir más
+Añadir a la cesta
+Ir al pago
+Comparte este producto con sus amigos
+Compartir Compartir Fíjelo
+BARNIZ TINTE SATINADO AVELLANA 750 ML
+Tienda / Baniz de interior
+  * Mi cuenta   * Seguimiento de pedidos   * Cesta
+Mostrar precios en: EUR
+## ¿Necesitas más información?
+TE LLAMAMOS NOSOTROS
+Avenida de Moratalaz 141
+28030, Madrid
+hogaryhobby@gmail.com
+hogaryhobby@gmail.com
+914393334 \- 914399141 - 629224604
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+##### Síguenos
+  *   *   *   *   *   *   *   *   *   *   * 
+Mostrar más Mostrar menos
+### Horario de apertura
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+Enlaces de interés:
+  * Tintes y lasures al agua para madera en Moratalaz, Madrid   * Barnices y protectores para madera en Moratalaz Madrid   * Tienda de pavimentos y azulejos en Moratalaz, Madrid   * Obras y reformas integrales en Moratalaz, Madrid
+  * Aviso legal Aviso legal   * - Política de privacidad Política de privacidad   * - Política de cookies Política de cookies   * - Declaración accesibilidad Declaración accesibilidad   * - Política de envío y devoluciones Política de envío y devoluciones
+Share by:
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>LASUR AL AGUA WENGUÉ 750 ML</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://www.hogaryhobby.com/tienda/LASUR-AL-AGUA-WENGUE-750-ML-p672934434</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://d2j6dbq0eux0bg.cloudfront.net/images/103344402/4390430158.png</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>LASUR AL AGUA WENGUÉ 750 ML</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>8,25€</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Síguenos
+  *   *   *   *   *   *   *   *   *   *   *
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+LLÁMANOS
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+0
+0
+# LASUR AL AGUA WENGUÉ 750 ML
+Tienda / Exterior y Jardín / Lasur al agua
+€ 8,25
+Precio incluido IVA (19%) € 1,32
+Disponible
+Añadir más
+Añadir a la cesta
+Ir al pago
+Comparte este producto con sus amigos
+Compartir Compartir Fíjelo
+LASUR AL AGUA WENGUÉ 750 ML
+Tienda / Exterior y Jardín / Lasur al agua
+  * Mi cuenta   * Seguimiento de pedidos   * Cesta
+Mostrar precios en: EUR
+## ¿Necesitas más información?
+TE LLAMAMOS NOSOTROS
+Avenida de Moratalaz 141
+28030, Madrid
+hogaryhobby@gmail.com
+hogaryhobby@gmail.com
+914393334 \- 914399141 - 629224604
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+##### Síguenos
+  *   *   *   *   *   *   *   *   *   *   * 
+Mostrar más Mostrar menos
+### Horario de apertura
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+Enlaces de interés:
+  * Tintes y lasures al agua para madera en Moratalaz, Madrid   * Barnices y protectores para madera en Moratalaz Madrid   * Tienda de pavimentos y azulejos en Moratalaz, Madrid   * Obras y reformas integrales en Moratalaz, Madrid
+  * Aviso legal Aviso legal   * - Política de privacidad Política de privacidad   * - Política de cookies Política de cookies   * - Declaración accesibilidad Declaración accesibilidad   * - Política de envío y devoluciones Política de envío y devoluciones
+Share by:
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>BETÚN DE JUDEA 100 ML</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://www.hogaryhobby.com/tienda/BETUN-DE-JUDEA-100-ML-p674408234</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>https://d2j6dbq0eux0bg.cloudfront.net/images/103344402/4402954819.jpg</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>BETÚN DE JUDEA 100 ML</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2,53€</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Síguenos
+  *   *   *   *   *   *   *   *   *   *   *
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+LLÁMANOS
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+0
+0
+# BETÚN DE JUDEA 100 ML
+Tienda / Restauración y decoración madera
+€ 2,53
+Precio incluido IVA (19%) € 0,40
+Disponible
+Añadir más
+Añadir a la cesta
+Ir al pago
+Comparte este producto con sus amigos
+Compartir Compartir Fíjelo
+BETÚN DE JUDEA 100 ML
+Tienda / Restauración y decoración madera
+  * Mi cuenta   * Seguimiento de pedidos   * Cesta
+Mostrar precios en: EUR
+## ¿Necesitas más información?
+TE LLAMAMOS NOSOTROS
+Avenida de Moratalaz 141
+28030, Madrid
+hogaryhobby@gmail.com
+hogaryhobby@gmail.com
+914393334 \- 914399141 - 629224604
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+##### Síguenos
+  *   *   *   *   *   *   *   *   *   *   * 
+Mostrar más Mostrar menos
+### Horario de apertura
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+Enlaces de interés:
+  * Tintes y lasures al agua para madera en Moratalaz, Madrid   * Barnices y protectores para madera en Moratalaz Madrid   * Tienda de pavimentos y azulejos en Moratalaz, Madrid   * Obras y reformas integrales en Moratalaz, Madrid
+  * Aviso legal Aviso legal   * - Política de privacidad Política de privacidad   * - Política de cookies Política de cookies   * - Declaración accesibilidad Declaración accesibilidad   * - Política de envío y devoluciones Política de envío y devoluciones
+Share by:
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>ACEITE TEKA COLOR TEKA 4 L</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://www.hogaryhobby.com/tienda/ACEITE-TEKA-COLOR-TEKA-4-L-p674408226</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>https://d2j6dbq0eux0bg.cloudfront.net/images/103344402/4402857997.jpg</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>ACEITE TEKA COLOR TEKA 4 L</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>36,65€</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Síguenos
+  *   *   *   *   *   *   *   *   *   *   *
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+LLÁMANOS
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+0
+0
+# ACEITE TEKA COLOR TEKA 4 L
+Tienda / Exterior y Jardín / Aceites
+€ 36,65
+Precio incluido IVA (19%) € 5,85
+Disponible
+Añadir más
+Añadir a la cesta
+Ir al pago
+Comparte este producto con sus amigos
+Compartir Compartir Fíjelo
+ACEITE TEKA COLOR TEKA 4 L
+Tienda / Exterior y Jardín / Aceites
+  * Mi cuenta   * Seguimiento de pedidos   * Cesta
+Mostrar precios en: EUR
+## ¿Necesitas más información?
+TE LLAMAMOS NOSOTROS
+Avenida de Moratalaz 141
+28030, Madrid
+hogaryhobby@gmail.com
+hogaryhobby@gmail.com
+914393334 \- 914399141 - 629224604
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+##### Síguenos
+  *   *   *   *   *   *   *   *   *   *   * 
+Mostrar más Mostrar menos
+### Horario de apertura
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+Enlaces de interés:
+  * Tintes y lasures al agua para madera en Moratalaz, Madrid   * Barnices y protectores para madera en Moratalaz Madrid   * Tienda de pavimentos y azulejos en Moratalaz, Madrid   * Obras y reformas integrales en Moratalaz, Madrid
+  * Aviso legal Aviso legal   * - Política de privacidad Política de privacidad   * - Política de cookies Política de cookies   * - Declaración accesibilidad Declaración accesibilidad   * - Política de envío y devoluciones Política de envío y devoluciones
+Share by:
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>LASUR AL AGUA ROBLE 750 ML</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://www.hogaryhobby.com/tienda/LASUR-AL-AGUA-ROBLE-750-ML-p672933442</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>https://d2j6dbq0eux0bg.cloudfront.net/images/103344402/4390425050.jpg</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>LASUR AL AGUA ROBLE 750 ML</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>8,25€</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Síguenos
+  *   *   *   *   *   *   *   *   *   *   *
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+LLÁMANOS
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+0
+0
+# LASUR AL AGUA ROBLE 750 ML
+Tienda / Exterior y Jardín / Lasur al agua
+€ 8,25
+Precio incluido IVA (19%) € 1,32
+Disponible
+Añadir más
+Añadir a la cesta
+Ir al pago
+Comparte este producto con sus amigos
+Compartir Compartir Fíjelo
+LASUR AL AGUA ROBLE 750 ML
+Tienda / Exterior y Jardín / Lasur al agua
+  * Mi cuenta   * Seguimiento de pedidos   * Cesta
+Mostrar precios en: EUR
+## ¿Necesitas más información?
+TE LLAMAMOS NOSOTROS
+Avenida de Moratalaz 141
+28030, Madrid
+hogaryhobby@gmail.com
+hogaryhobby@gmail.com
+914393334 \- 914399141 - 629224604
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+##### Síguenos
+  *   *   *   *   *   *   *   *   *   *   * 
+Mostrar más Mostrar menos
+### Horario de apertura
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+Enlaces de interés:
+  * Tintes y lasures al agua para madera en Moratalaz, Madrid   * Barnices y protectores para madera en Moratalaz Madrid   * Tienda de pavimentos y azulejos en Moratalaz, Madrid   * Obras y reformas integrales en Moratalaz, Madrid
+  * Aviso legal Aviso legal   * - Política de privacidad Política de privacidad   * - Política de cookies Política de cookies   * - Declaración accesibilidad Declaración accesibilidad   * - Política de envío y devoluciones Política de envío y devoluciones
+Share by:
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>BETÚN DE JUDEA 4 L</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://www.hogaryhobby.com/tienda/BETUN-DE-JUDEA-4-L-p674434002</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>https://d2j6dbq0eux0bg.cloudfront.net/images/103344402/4402962861.jpg</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>BETÚN DE JUDEA 4 L</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>34,69€</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Síguenos
+  *   *   *   *   *   *   *   *   *   *   *
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+LLÁMANOS
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+0
+0
+# BETÚN DE JUDEA 4 L
+Tienda / Restauración y decoración madera
+€ 34,69
+Precio incluido IVA (19%) € 5,54
+Disponible
+Añadir más
+Añadir a la cesta
+Ir al pago
+Comparte este producto con sus amigos
+Compartir Compartir Fíjelo
+BETÚN DE JUDEA 4 L
+Tienda / Restauración y decoración madera
+  * Mi cuenta   * Seguimiento de pedidos   * Cesta
+Mostrar precios en: EUR
+## ¿Necesitas más información?
+TE LLAMAMOS NOSOTROS
+Avenida de Moratalaz 141
+28030, Madrid
+hogaryhobby@gmail.com
+hogaryhobby@gmail.com
+914393334 \- 914399141 - 629224604
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+##### Síguenos
+  *   *   *   *   *   *   *   *   *   *   * 
+Mostrar más Mostrar menos
+### Horario de apertura
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+Enlaces de interés:
+  * Tintes y lasures al agua para madera en Moratalaz, Madrid   * Barnices y protectores para madera en Moratalaz Madrid   * Tienda de pavimentos y azulejos en Moratalaz, Madrid   * Obras y reformas integrales en Moratalaz, Madrid
+  * Aviso legal Aviso legal   * - Política de privacidad Política de privacidad   * - Política de cookies Política de cookies   * - Declaración accesibilidad Declaración accesibilidad   * - Política de envío y devoluciones Política de envío y devoluciones
+Share by:
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>BARNIZ TINTE MATE NOGAL 750 ML</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>https://www.hogaryhobby.com/tienda/BARNIZ-TINTE-MATE-NOGAL-750-ML-p674409729</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>https://d2j6dbq0eux0bg.cloudfront.net/images/103344402/4402921469.jpg</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>BARNIZ TINTE MATE NOGAL 750 ML</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>9,62€</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Síguenos
+  *   *   *   *   *   *   *   *   *   *   *
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+LLÁMANOS
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+0
+0
+# BARNIZ TINTE MATE NOGAL 750 ML
+Tienda / Baniz de interior
+€ 9,62
+Precio incluido IVA (19%) € 1,54
+Disponible
+Añadir más
+Añadir a la cesta
+Ir al pago
+Comparte este producto con sus amigos
+Compartir Compartir Fíjelo
+BARNIZ TINTE MATE NOGAL 750 ML
+Tienda / Baniz de interior
+  * Mi cuenta   * Seguimiento de pedidos   * Cesta
+Mostrar precios en: EUR
+## ¿Necesitas más información?
+TE LLAMAMOS NOSOTROS
+Avenida de Moratalaz 141
+28030, Madrid
+hogaryhobby@gmail.com
+hogaryhobby@gmail.com
+914393334 \- 914399141 - 629224604
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+##### Síguenos
+  *   *   *   *   *   *   *   *   *   *   * 
+Mostrar más Mostrar menos
+### Horario de apertura
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+Enlaces de interés:
+  * Tintes y lasures al agua para madera en Moratalaz, Madrid   * Barnices y protectores para madera en Moratalaz Madrid   * Tienda de pavimentos y azulejos en Moratalaz, Madrid   * Obras y reformas integrales en Moratalaz, Madrid
+  * Aviso legal Aviso legal   * - Política de privacidad Política de privacidad   * - Política de cookies Política de cookies   * - Declaración accesibilidad Declaración accesibilidad   * - Política de envío y devoluciones Política de envío y devoluciones
+Share by:
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>BARNIZ TINTE MATE ROBLE 750 ML</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://www.hogaryhobby.com/tienda/BARNIZ-TINTE-MATE-ROBLE-750-ML-p674408233</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>https://d2j6dbq0eux0bg.cloudfront.net/images/103344402/4402925420.jpg</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>BARNIZ TINTE MATE ROBLE 750 ML</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>9,62€</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Síguenos
+  *   *   *   *   *   *   *   *   *   *   *
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+LLÁMANOS
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+0
+0
+# BARNIZ TINTE MATE ROBLE 750 ML
+Tienda / Baniz de interior
+€ 9,62
+Precio incluido IVA (19%) € 1,54
+Disponible
+Añadir más
+Añadir a la cesta
+Ir al pago
+Comparte este producto con sus amigos
+Compartir Compartir Fíjelo
+BARNIZ TINTE MATE ROBLE 750 ML
+Tienda / Baniz de interior
+  * Mi cuenta   * Seguimiento de pedidos   * Cesta
+Mostrar precios en: EUR
+## ¿Necesitas más información?
+TE LLAMAMOS NOSOTROS
+Avenida de Moratalaz 141
+28030, Madrid
+hogaryhobby@gmail.com
+hogaryhobby@gmail.com
+914393334 \- 914399141 - 629224604
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+##### Síguenos
+  *   *   *   *   *   *   *   *   *   *   * 
+Mostrar más Mostrar menos
+### Horario de apertura
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+Enlaces de interés:
+  * Tintes y lasures al agua para madera en Moratalaz, Madrid   * Barnices y protectores para madera en Moratalaz Madrid   * Tienda de pavimentos y azulejos en Moratalaz, Madrid   * Obras y reformas integrales en Moratalaz, Madrid
+  * Aviso legal Aviso legal   * - Política de privacidad Política de privacidad   * - Política de cookies Política de cookies   * - Declaración accesibilidad Declaración accesibilidad   * - Política de envío y devoluciones Política de envío y devoluciones
+Share by:
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>BARNIZ TINTE SATINADO CEREZO 375 ML</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://www.hogaryhobby.com/tienda/BARNIZ-TINTE-SATINADO-CEREZO-375-ML-p674408229</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>https://d2j6dbq0eux0bg.cloudfront.net/images/103344402/4402933675.jpg</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>BARNIZ TINTE SATINADO CEREZO 375 ML</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5,91€</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Síguenos
+  *   *   *   *   *   *   *   *   *   *   *
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+LLÁMANOS
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+0
+0
+# BARNIZ TINTE SATINADO CEREZO 375 ML
+Tienda / Baniz de interior
+€ 5,91
+Precio incluido IVA (19%) € 0,94
+Disponible
+Añadir más
+Añadir a la cesta
+Ir al pago
+Comparte este producto con sus amigos
+Compartir Compartir Fíjelo
+BARNIZ TINTE SATINADO CEREZO 375 ML
+Tienda / Baniz de interior
+  * Mi cuenta   * Seguimiento de pedidos   * Cesta
+Mostrar precios en: EUR
+## ¿Necesitas más información?
+TE LLAMAMOS NOSOTROS
+Avenida de Moratalaz 141
+28030, Madrid
+hogaryhobby@gmail.com
+hogaryhobby@gmail.com
+914393334 \- 914399141 - 629224604
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+##### Síguenos
+  *   *   *   *   *   *   *   *   *   *   * 
+Mostrar más Mostrar menos
+### Horario de apertura
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+Enlaces de interés:
+  * Tintes y lasures al agua para madera en Moratalaz, Madrid   * Barnices y protectores para madera en Moratalaz Madrid   * Tienda de pavimentos y azulejos en Moratalaz, Madrid   * Obras y reformas integrales en Moratalaz, Madrid
+  * Aviso legal Aviso legal   * - Política de privacidad Política de privacidad   * - Política de cookies Política de cookies   * - Declaración accesibilidad Declaración accesibilidad   * - Política de envío y devoluciones Política de envío y devoluciones
+Share by:
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>BETÚN DE JUDEA AL AGUA 125 ML</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://www.hogaryhobby.com/tienda/BETUN-DE-JUDEA-AL-AGUA-125-ML-p674409897</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>https://d2j6dbq0eux0bg.cloudfront.net/images/103344402/4402961719.jpg</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>BETÚN DE JUDEA AL AGUA 125 ML</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4,47€</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Síguenos
+  *   *   *   *   *   *   *   *   *   *   *
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+LLÁMANOS
+Request a quote
+Write us
+Where we are
+Check availability
+Reserve now
+Online shop
+Make an appointment
+Online quote
+0
+0
+# BETÚN DE JUDEA AL AGUA 125 ML
+Tienda / Restauración y decoración madera
+€ 4,47
+Precio incluido IVA (19%) € 0,71
+Disponible
+Añadir más
+Añadir a la cesta
+Ir al pago
+Comparte este producto con sus amigos
+Compartir Compartir Fíjelo
+BETÚN DE JUDEA AL AGUA 125 ML
+Tienda / Restauración y decoración madera
+  * Mi cuenta   * Seguimiento de pedidos   * Cesta
+Mostrar precios en: EUR
+## ¿Necesitas más información?
+TE LLAMAMOS NOSOTROS
+Avenida de Moratalaz 141
+28030, Madrid
+hogaryhobby@gmail.com
+hogaryhobby@gmail.com
+914393334 \- 914399141 - 629224604
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+##### Síguenos
+  *   *   *   *   *   *   *   *   *   *   * 
+Mostrar más Mostrar menos
+### Horario de apertura
+Lun - Vie
+     10:00 \- 14:00 17:00 \- 20:00
+Sábado
+     10:00 \- 14:00
+Domingo
+    Cerrado
+Enlaces de interés:
+  * Tintes y lasures al agua para madera en Moratalaz, Madrid   * Barnices y protectores para madera en Moratalaz Madrid   * Tienda de pavimentos y azulejos en Moratalaz, Madrid   * Obras y reformas integrales en Moratalaz, Madrid
+  * Aviso legal Aviso legal   * - Política de privacidad Política de privacidad   * - Política de cookies Política de cookies   * - Declaración accesibilidad Declaración accesibilidad   * - Política de envío y devoluciones Política de envío y devoluciones
+Share by:
 </t>
         </is>
       </c>
